--- a/server/prices/husqvarna/Accessories.xlsx
+++ b/server/prices/husqvarna/Accessories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1104">
   <si>
     <t>EL10 CnB</t>
   </si>
@@ -3320,6 +3320,12 @@
   </si>
   <si>
     <t>almaznaya-osnastka_drugoe</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Категория</t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3502,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -3574,6 +3580,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal_Sheet1" xfId="1"/>
@@ -3995,7 +4002,7 @@
   <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H465" sqref="H465"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4092,7 +4099,9 @@
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="35" t="s">
+        <v>1102</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="23" t="s">
         <v>95</v>
@@ -4104,7 +4113,7 @@
         <v>97</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="I11" s="11"/>
     </row>

--- a/server/prices/husqvarna/Accessories.xlsx
+++ b/server/prices/husqvarna/Accessories.xlsx
@@ -4002,7 +4002,7 @@
   <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4112,6 +4112,7 @@
       <c r="F11" s="24" t="s">
         <v>97</v>
       </c>
+      <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
         <v>1103</v>
       </c>

--- a/server/prices/husqvarna/Accessories.xlsx
+++ b/server/prices/husqvarna/Accessories.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories_HCP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1123">
   <si>
     <t>EL10 CnB</t>
   </si>
@@ -3387,17 +3377,23 @@
   </si>
   <si>
     <t xml:space="preserve"> Действителен с 01.02.2022г. ( Цены указаны в рублях)</t>
+  </si>
+  <si>
+    <t>diski</t>
+  </si>
+  <si>
+    <t>Категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_р_._-;\-* #,##0.0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_р_._-;\-* #,##0.0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -3497,7 +3493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3567,9 +3563,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -3585,7 +3581,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3658,6 +3654,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal_Sheet1" xfId="1"/>
@@ -3667,14 +3666,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3695,25 +3686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8281" name="Picture 11" descr="HCP_RGB%20small">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698311F5-3017-40E8-BE86-30DF4A9F9402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 11" descr="HCP_RGB%20small"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3728,28 +3707,12 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4053,11 +4016,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -4084,11 +4047,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -4106,14 +4069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F582"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="11" customWidth="1"/>
@@ -4122,14 +4085,14 @@
     <col min="5" max="6" width="13.5703125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15.75">
       <c r="B1" s="5"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="13.5">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4138,7 +4101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4147,7 +4110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4156,7 +4119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4165,7 +4128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4174,7 +4137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4183,28 +4146,28 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="13.5" thickBot="1">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="27"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="13.5" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="13.5" thickBot="1">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="13.5" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="23" t="s">
@@ -4216,8 +4179,11 @@
       <c r="F11" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="40" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="11" customFormat="1">
       <c r="B12" s="13" t="s">
         <v>360</v>
       </c>
@@ -4235,7 +4201,7 @@
         <v>13875.6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" s="11" customFormat="1">
       <c r="B13" s="13" t="s">
         <v>360</v>
       </c>
@@ -4253,7 +4219,7 @@
         <v>16303.199999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" s="11" customFormat="1">
       <c r="B14" s="13" t="s">
         <v>360</v>
       </c>
@@ -4271,7 +4237,7 @@
         <v>20106</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="11" customFormat="1">
       <c r="B15" s="17" t="s">
         <v>360</v>
       </c>
@@ -4289,7 +4255,7 @@
         <v>16434</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" s="11" customFormat="1">
       <c r="B16" s="17" t="s">
         <v>360</v>
       </c>
@@ -4307,7 +4273,7 @@
         <v>16434</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" s="11" customFormat="1">
       <c r="B17" s="17" t="s">
         <v>360</v>
       </c>
@@ -4325,7 +4291,7 @@
         <v>20731.2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" s="11" customFormat="1">
       <c r="B18" s="17" t="s">
         <v>360</v>
       </c>
@@ -4343,7 +4309,7 @@
         <v>22754.399999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" s="11" customFormat="1">
       <c r="B19" s="17" t="s">
         <v>360</v>
       </c>
@@ -4361,7 +4327,7 @@
         <v>26038.799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" s="11" customFormat="1">
       <c r="B20" s="17" t="s">
         <v>360</v>
       </c>
@@ -4379,7 +4345,7 @@
         <v>16434</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" s="11" customFormat="1">
       <c r="B21" s="17" t="s">
         <v>360</v>
       </c>
@@ -4397,7 +4363,7 @@
         <v>20731.2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" s="11" customFormat="1">
       <c r="B22" s="17" t="s">
         <v>360</v>
       </c>
@@ -4415,7 +4381,7 @@
         <v>22754.399999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" s="11" customFormat="1">
       <c r="B23" s="17" t="s">
         <v>360</v>
       </c>
@@ -4433,7 +4399,7 @@
         <v>26038.799999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" s="11" customFormat="1">
       <c r="B24" s="17" t="s">
         <v>360</v>
       </c>
@@ -4451,7 +4417,7 @@
         <v>26038.799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" s="11" customFormat="1">
       <c r="B25" s="17" t="s">
         <v>360</v>
       </c>
@@ -4469,7 +4435,7 @@
         <v>32001.599999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" s="11" customFormat="1">
       <c r="B26" s="17" t="s">
         <v>360</v>
       </c>
@@ -4487,7 +4453,7 @@
         <v>32001.599999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" s="11" customFormat="1">
       <c r="B27" s="17" t="s">
         <v>360</v>
       </c>
@@ -4505,7 +4471,7 @@
         <v>35510.400000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" s="11" customFormat="1">
       <c r="B28" s="17" t="s">
         <v>360</v>
       </c>
@@ -4523,7 +4489,7 @@
         <v>16434</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" s="11" customFormat="1">
       <c r="B29" s="17" t="s">
         <v>360</v>
       </c>
@@ -4541,7 +4507,7 @@
         <v>20732.399999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" s="11" customFormat="1">
       <c r="B30" s="17" t="s">
         <v>360</v>
       </c>
@@ -4559,7 +4525,7 @@
         <v>22754.399999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" s="11" customFormat="1">
       <c r="B31" s="17" t="s">
         <v>360</v>
       </c>
@@ -4577,7 +4543,7 @@
         <v>26038.799999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" s="11" customFormat="1">
       <c r="B32" s="17" t="s">
         <v>360</v>
       </c>
@@ -4595,7 +4561,7 @@
         <v>34612.799999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" s="11" customFormat="1">
       <c r="B33" s="17" t="s">
         <v>360</v>
       </c>
@@ -4613,7 +4579,7 @@
         <v>38415.599999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" s="11" customFormat="1">
       <c r="B34" s="17" t="s">
         <v>360</v>
       </c>
@@ -4631,7 +4597,7 @@
         <v>18673.2</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" s="11" customFormat="1">
       <c r="B35" s="17" t="s">
         <v>360</v>
       </c>
@@ -4649,7 +4615,7 @@
         <v>23150.399999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" s="11" customFormat="1">
       <c r="B36" s="17" t="s">
         <v>360</v>
       </c>
@@ -4667,7 +4633,7 @@
         <v>25783.200000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" s="11" customFormat="1">
       <c r="B37" s="17" t="s">
         <v>360</v>
       </c>
@@ -4685,7 +4651,7 @@
         <v>29323.200000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" s="11" customFormat="1">
       <c r="B38" s="17" t="s">
         <v>360</v>
       </c>
@@ -4703,7 +4669,7 @@
         <v>44821.2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" s="11" customFormat="1">
       <c r="B39" s="17" t="s">
         <v>360</v>
       </c>
@@ -4721,7 +4687,7 @@
         <v>49742.400000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" s="11" customFormat="1">
       <c r="B40" s="17" t="s">
         <v>360</v>
       </c>
@@ -4739,7 +4705,7 @@
         <v>35502</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" s="11" customFormat="1">
       <c r="B41" s="17" t="s">
         <v>360</v>
       </c>
@@ -4757,7 +4723,7 @@
         <v>35502</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" s="11" customFormat="1">
       <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
@@ -4775,7 +4741,7 @@
         <v>29110.799999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" s="11" customFormat="1">
       <c r="B43" s="5" t="s">
         <v>79</v>
       </c>
@@ -4793,7 +4759,7 @@
         <v>37864.799999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" s="11" customFormat="1">
       <c r="B44" s="5" t="s">
         <v>79</v>
       </c>
@@ -4811,7 +4777,7 @@
         <v>37864.799999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" s="11" customFormat="1">
       <c r="B45" s="5" t="s">
         <v>79</v>
       </c>
@@ -4829,7 +4795,7 @@
         <v>29110.799999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" s="11" customFormat="1">
       <c r="B46" s="5" t="s">
         <v>79</v>
       </c>
@@ -4847,7 +4813,7 @@
         <v>19906.8</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" s="11" customFormat="1">
       <c r="B47" s="5" t="s">
         <v>79</v>
       </c>
@@ -4865,7 +4831,7 @@
         <v>26241.599999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" s="11" customFormat="1">
       <c r="B48" s="5" t="s">
         <v>79</v>
       </c>
@@ -4883,7 +4849,7 @@
         <v>19906.8</v>
       </c>
     </row>
-    <row r="49" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" s="11" customFormat="1">
       <c r="B49" s="5" t="s">
         <v>79</v>
       </c>
@@ -4901,7 +4867,7 @@
         <v>19906.8</v>
       </c>
     </row>
-    <row r="50" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" s="11" customFormat="1">
       <c r="B50" s="17" t="s">
         <v>977</v>
       </c>
@@ -4919,7 +4885,7 @@
         <v>121659.59999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" s="11" customFormat="1">
       <c r="B51" s="17" t="s">
         <v>977</v>
       </c>
@@ -4937,7 +4903,7 @@
         <v>84189.599999999991</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" s="11" customFormat="1">
       <c r="B52" s="17" t="s">
         <v>977</v>
       </c>
@@ -4955,7 +4921,7 @@
         <v>67176</v>
       </c>
     </row>
-    <row r="53" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" s="11" customFormat="1">
       <c r="B53" s="17" t="s">
         <v>977</v>
       </c>
@@ -4973,7 +4939,7 @@
         <v>67176</v>
       </c>
     </row>
-    <row r="54" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" s="11" customFormat="1">
       <c r="B54" s="17" t="s">
         <v>977</v>
       </c>
@@ -4991,7 +4957,7 @@
         <v>67176</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" s="11" customFormat="1">
       <c r="B55" s="17" t="s">
         <v>977</v>
       </c>
@@ -5009,7 +4975,7 @@
         <v>51855.6</v>
       </c>
     </row>
-    <row r="56" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" s="11" customFormat="1">
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
@@ -5027,7 +4993,7 @@
         <v>19528.8</v>
       </c>
     </row>
-    <row r="57" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" s="11" customFormat="1">
       <c r="B57" s="5" t="s">
         <v>83</v>
       </c>
@@ -5045,7 +5011,7 @@
         <v>19528.8</v>
       </c>
     </row>
-    <row r="58" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" s="11" customFormat="1">
       <c r="B58" s="5" t="s">
         <v>83</v>
       </c>
@@ -5063,7 +5029,7 @@
         <v>19528.8</v>
       </c>
     </row>
-    <row r="59" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" s="11" customFormat="1">
       <c r="B59" s="13" t="s">
         <v>360</v>
       </c>
@@ -5081,7 +5047,7 @@
         <v>3553.2</v>
       </c>
     </row>
-    <row r="60" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" s="11" customFormat="1">
       <c r="B60" s="13" t="s">
         <v>360</v>
       </c>
@@ -5099,7 +5065,7 @@
         <v>5613.5999999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" s="11" customFormat="1">
       <c r="B61" s="13" t="s">
         <v>360</v>
       </c>
@@ -5117,7 +5083,7 @@
         <v>8415.6</v>
       </c>
     </row>
-    <row r="62" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" s="11" customFormat="1">
       <c r="B62" s="13" t="s">
         <v>360</v>
       </c>
@@ -5135,7 +5101,7 @@
         <v>4143.5999999999995</v>
       </c>
     </row>
-    <row r="63" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" s="11" customFormat="1">
       <c r="B63" s="13" t="s">
         <v>360</v>
       </c>
@@ -5153,7 +5119,7 @@
         <v>4274.3999999999996</v>
       </c>
     </row>
-    <row r="64" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" s="11" customFormat="1">
       <c r="B64" s="13" t="s">
         <v>360</v>
       </c>
@@ -5171,7 +5137,7 @@
         <v>8019.5999999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" s="11" customFormat="1">
       <c r="B65" s="13" t="s">
         <v>360</v>
       </c>
@@ -5189,7 +5155,7 @@
         <v>9355.1999999999989</v>
       </c>
     </row>
-    <row r="66" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" s="11" customFormat="1">
       <c r="B66" s="14" t="s">
         <v>332</v>
       </c>
@@ -5207,7 +5173,7 @@
         <v>3007.2</v>
       </c>
     </row>
-    <row r="67" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" s="11" customFormat="1">
       <c r="B67" s="14" t="s">
         <v>332</v>
       </c>
@@ -5225,7 +5191,7 @@
         <v>2888.4</v>
       </c>
     </row>
-    <row r="68" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" s="11" customFormat="1">
       <c r="B68" s="14" t="s">
         <v>332</v>
       </c>
@@ -5243,7 +5209,7 @@
         <v>5054.3999999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" s="11" customFormat="1">
       <c r="B69" s="14" t="s">
         <v>332</v>
       </c>
@@ -5261,7 +5227,7 @@
         <v>3607.2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" s="11" customFormat="1">
       <c r="B70" s="14" t="s">
         <v>332</v>
       </c>
@@ -5279,7 +5245,7 @@
         <v>5054.3999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" s="11" customFormat="1">
       <c r="B71" s="14" t="s">
         <v>332</v>
       </c>
@@ -5297,7 +5263,7 @@
         <v>3007.2</v>
       </c>
     </row>
-    <row r="72" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" s="11" customFormat="1">
       <c r="B72" s="14" t="s">
         <v>332</v>
       </c>
@@ -5315,7 +5281,7 @@
         <v>3368.4</v>
       </c>
     </row>
-    <row r="73" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" s="11" customFormat="1">
       <c r="B73" s="14" t="s">
         <v>332</v>
       </c>
@@ -5333,7 +5299,7 @@
         <v>5054.3999999999996</v>
       </c>
     </row>
-    <row r="74" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" s="11" customFormat="1">
       <c r="B74" s="14" t="s">
         <v>332</v>
       </c>
@@ -5351,7 +5317,7 @@
         <v>3007.2</v>
       </c>
     </row>
-    <row r="75" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" s="11" customFormat="1">
       <c r="B75" s="14" t="s">
         <v>197</v>
       </c>
@@ -5369,7 +5335,7 @@
         <v>3368.4</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" s="11" customFormat="1">
       <c r="B76" s="14" t="s">
         <v>332</v>
       </c>
@@ -5387,7 +5353,7 @@
         <v>3368.4</v>
       </c>
     </row>
-    <row r="77" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" s="11" customFormat="1">
       <c r="B77" s="14" t="s">
         <v>197</v>
       </c>
@@ -5405,7 +5371,7 @@
         <v>3368.4</v>
       </c>
     </row>
-    <row r="78" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" s="11" customFormat="1">
       <c r="B78" s="14" t="s">
         <v>332</v>
       </c>
@@ -5423,7 +5389,7 @@
         <v>3368.4</v>
       </c>
     </row>
-    <row r="79" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" s="11" customFormat="1">
       <c r="B79" s="14" t="s">
         <v>332</v>
       </c>
@@ -5441,7 +5407,7 @@
         <v>5054.3999999999996</v>
       </c>
     </row>
-    <row r="80" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" s="11" customFormat="1">
       <c r="B80" s="14" t="s">
         <v>332</v>
       </c>
@@ -5459,7 +5425,7 @@
         <v>5532</v>
       </c>
     </row>
-    <row r="81" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" s="11" customFormat="1">
       <c r="B81" s="14" t="s">
         <v>332</v>
       </c>
@@ -5477,7 +5443,7 @@
         <v>7696.7999999999993</v>
       </c>
     </row>
-    <row r="82" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" s="11" customFormat="1">
       <c r="B82" s="14" t="s">
         <v>332</v>
       </c>
@@ -5495,7 +5461,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="83" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6" s="11" customFormat="1">
       <c r="B83" s="14" t="s">
         <v>332</v>
       </c>
@@ -5513,7 +5479,7 @@
         <v>12501.6</v>
       </c>
     </row>
-    <row r="84" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6" s="11" customFormat="1">
       <c r="B84" s="14" t="s">
         <v>332</v>
       </c>
@@ -5531,7 +5497,7 @@
         <v>14694</v>
       </c>
     </row>
-    <row r="85" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6" s="11" customFormat="1">
       <c r="B85" s="14" t="s">
         <v>332</v>
       </c>
@@ -5549,7 +5515,7 @@
         <v>9140.4</v>
       </c>
     </row>
-    <row r="86" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6" s="11" customFormat="1">
       <c r="B86" s="14" t="s">
         <v>332</v>
       </c>
@@ -5567,7 +5533,7 @@
         <v>11523.6</v>
       </c>
     </row>
-    <row r="87" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6" s="11" customFormat="1">
       <c r="B87" s="14" t="s">
         <v>332</v>
       </c>
@@ -5585,7 +5551,7 @@
         <v>13483.199999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" s="11" customFormat="1">
       <c r="B88" s="14" t="s">
         <v>332</v>
       </c>
@@ -5603,7 +5569,7 @@
         <v>21378</v>
       </c>
     </row>
-    <row r="89" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" s="11" customFormat="1">
       <c r="B89" s="14" t="s">
         <v>332</v>
       </c>
@@ -5621,7 +5587,7 @@
         <v>26096.399999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6" s="11" customFormat="1">
       <c r="B90" s="14" t="s">
         <v>332</v>
       </c>
@@ -5639,7 +5605,7 @@
         <v>9140.4</v>
       </c>
     </row>
-    <row r="91" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6" s="11" customFormat="1">
       <c r="B91" s="14" t="s">
         <v>332</v>
       </c>
@@ -5657,7 +5623,7 @@
         <v>11523.6</v>
       </c>
     </row>
-    <row r="92" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6" s="11" customFormat="1">
       <c r="B92" s="14" t="s">
         <v>332</v>
       </c>
@@ -5675,7 +5641,7 @@
         <v>13483.199999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6" s="11" customFormat="1">
       <c r="B93" s="14" t="s">
         <v>332</v>
       </c>
@@ -5693,7 +5659,7 @@
         <v>10951.199999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6" s="11" customFormat="1">
       <c r="B94" s="14" t="s">
         <v>332</v>
       </c>
@@ -5711,7 +5677,7 @@
         <v>14319.6</v>
       </c>
     </row>
-    <row r="95" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6" s="11" customFormat="1">
       <c r="B95" s="14" t="s">
         <v>332</v>
       </c>
@@ -5729,7 +5695,7 @@
         <v>15447.599999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6" s="11" customFormat="1">
       <c r="B96" s="14" t="s">
         <v>332</v>
       </c>
@@ -5747,7 +5713,7 @@
         <v>22718.399999999998</v>
       </c>
     </row>
-    <row r="97" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" s="11" customFormat="1">
       <c r="B97" s="14" t="s">
         <v>332</v>
       </c>
@@ -5765,7 +5731,7 @@
         <v>27267.599999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" s="11" customFormat="1">
       <c r="B98" s="14" t="s">
         <v>332</v>
       </c>
@@ -5783,7 +5749,7 @@
         <v>11590.8</v>
       </c>
     </row>
-    <row r="99" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" s="11" customFormat="1">
       <c r="B99" s="14" t="s">
         <v>332</v>
       </c>
@@ -5801,7 +5767,7 @@
         <v>15759.599999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" s="11" customFormat="1">
       <c r="B100" s="14" t="s">
         <v>332</v>
       </c>
@@ -5819,7 +5785,7 @@
         <v>17292</v>
       </c>
     </row>
-    <row r="101" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" s="11" customFormat="1">
       <c r="B101" s="14" t="s">
         <v>332</v>
       </c>
@@ -5837,7 +5803,7 @@
         <v>23272.799999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" s="11" customFormat="1">
       <c r="B102" s="14" t="s">
         <v>332</v>
       </c>
@@ -5855,7 +5821,7 @@
         <v>26720.399999999998</v>
       </c>
     </row>
-    <row r="103" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" s="11" customFormat="1">
       <c r="B103" s="14" t="s">
         <v>360</v>
       </c>
@@ -5873,7 +5839,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="104" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" s="11" customFormat="1">
       <c r="B104" s="14" t="s">
         <v>360</v>
       </c>
@@ -5891,7 +5857,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="105" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" s="11" customFormat="1">
       <c r="B105" s="14" t="s">
         <v>360</v>
       </c>
@@ -5909,7 +5875,7 @@
         <v>3097.2</v>
       </c>
     </row>
-    <row r="106" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" s="11" customFormat="1">
       <c r="B106" s="14" t="s">
         <v>360</v>
       </c>
@@ -5927,7 +5893,7 @@
         <v>6466.8</v>
       </c>
     </row>
-    <row r="107" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" s="11" customFormat="1">
       <c r="B107" s="14" t="s">
         <v>360</v>
       </c>
@@ -5945,7 +5911,7 @@
         <v>7028.4</v>
       </c>
     </row>
-    <row r="108" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" s="11" customFormat="1">
       <c r="B108" s="14" t="s">
         <v>360</v>
       </c>
@@ -5963,7 +5929,7 @@
         <v>8443.1999999999989</v>
       </c>
     </row>
-    <row r="109" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" s="11" customFormat="1">
       <c r="B109" s="14" t="s">
         <v>360</v>
       </c>
@@ -5981,7 +5947,7 @@
         <v>10960.8</v>
       </c>
     </row>
-    <row r="110" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" s="11" customFormat="1">
       <c r="B110" s="14" t="s">
         <v>360</v>
       </c>
@@ -5999,7 +5965,7 @@
         <v>10407.6</v>
       </c>
     </row>
-    <row r="111" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" s="11" customFormat="1">
       <c r="B111" s="14" t="s">
         <v>360</v>
       </c>
@@ -6017,7 +5983,7 @@
         <v>12938.4</v>
       </c>
     </row>
-    <row r="112" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" s="11" customFormat="1">
       <c r="B112" s="14" t="s">
         <v>360</v>
       </c>
@@ -6035,7 +6001,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="113" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" s="11" customFormat="1">
       <c r="B113" s="11" t="s">
         <v>436</v>
       </c>
@@ -6053,7 +6019,7 @@
         <v>1249.2</v>
       </c>
     </row>
-    <row r="114" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" s="11" customFormat="1">
       <c r="B114" s="11" t="s">
         <v>436</v>
       </c>
@@ -6071,7 +6037,7 @@
         <v>1597.2</v>
       </c>
     </row>
-    <row r="115" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" s="11" customFormat="1">
       <c r="B115" s="11" t="s">
         <v>436</v>
       </c>
@@ -6089,7 +6055,7 @@
         <v>1249.2</v>
       </c>
     </row>
-    <row r="116" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" s="11" customFormat="1">
       <c r="B116" s="11" t="s">
         <v>436</v>
       </c>
@@ -6107,7 +6073,7 @@
         <v>1597.2</v>
       </c>
     </row>
-    <row r="117" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" s="11" customFormat="1">
       <c r="B117" s="11" t="s">
         <v>436</v>
       </c>
@@ -6125,7 +6091,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="118" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" s="11" customFormat="1">
       <c r="B118" s="11" t="s">
         <v>436</v>
       </c>
@@ -6143,7 +6109,7 @@
         <v>5836.8</v>
       </c>
     </row>
-    <row r="119" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" s="11" customFormat="1">
       <c r="B119" s="11" t="s">
         <v>436</v>
       </c>
@@ -6161,7 +6127,7 @@
         <v>7028.4</v>
       </c>
     </row>
-    <row r="120" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" s="11" customFormat="1">
       <c r="B120" s="11" t="s">
         <v>436</v>
       </c>
@@ -6179,7 +6145,7 @@
         <v>1249.2</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" s="11" customFormat="1">
       <c r="B121" s="11" t="s">
         <v>436</v>
       </c>
@@ -6197,7 +6163,7 @@
         <v>1597.2</v>
       </c>
     </row>
-    <row r="122" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" s="11" customFormat="1">
       <c r="B122" s="11" t="s">
         <v>436</v>
       </c>
@@ -6215,7 +6181,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="123" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" s="11" customFormat="1">
       <c r="B123" s="11" t="s">
         <v>436</v>
       </c>
@@ -6233,7 +6199,7 @@
         <v>6039.5999999999995</v>
       </c>
     </row>
-    <row r="124" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" s="11" customFormat="1">
       <c r="B124" s="11" t="s">
         <v>436</v>
       </c>
@@ -6251,7 +6217,7 @@
         <v>7293.5999999999995</v>
       </c>
     </row>
-    <row r="125" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" s="11" customFormat="1">
       <c r="B125" s="11" t="s">
         <v>436</v>
       </c>
@@ -6269,7 +6235,7 @@
         <v>9404.4</v>
       </c>
     </row>
-    <row r="126" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" s="11" customFormat="1">
       <c r="B126" s="11" t="s">
         <v>436</v>
       </c>
@@ -6287,7 +6253,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="127" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" s="11" customFormat="1">
       <c r="B127" s="11" t="s">
         <v>436</v>
       </c>
@@ -6305,7 +6271,7 @@
         <v>1909.1999999999998</v>
       </c>
     </row>
-    <row r="128" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" s="11" customFormat="1">
       <c r="B128" s="11" t="s">
         <v>436</v>
       </c>
@@ -6323,7 +6289,7 @@
         <v>4843.2</v>
       </c>
     </row>
-    <row r="129" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:6" s="11" customFormat="1">
       <c r="B129" s="11" t="s">
         <v>436</v>
       </c>
@@ -6341,7 +6307,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="130" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:6" s="11" customFormat="1">
       <c r="B130" s="11" t="s">
         <v>436</v>
       </c>
@@ -6359,7 +6325,7 @@
         <v>9214.7999999999993</v>
       </c>
     </row>
-    <row r="131" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:6" s="11" customFormat="1">
       <c r="B131" s="11" t="s">
         <v>436</v>
       </c>
@@ -6377,7 +6343,7 @@
         <v>11132.4</v>
       </c>
     </row>
-    <row r="132" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:6" s="11" customFormat="1">
       <c r="B132" s="11" t="s">
         <v>436</v>
       </c>
@@ -6395,7 +6361,7 @@
         <v>8450.4</v>
       </c>
     </row>
-    <row r="133" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:6" s="11" customFormat="1">
       <c r="B133" s="11" t="s">
         <v>436</v>
       </c>
@@ -6413,7 +6379,7 @@
         <v>10406.4</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:6">
       <c r="B134" s="11" t="s">
         <v>436</v>
       </c>
@@ -6431,7 +6397,7 @@
         <v>12675.6</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:6">
       <c r="B135" s="17" t="s">
         <v>933</v>
       </c>
@@ -6449,7 +6415,7 @@
         <v>46136.4</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6">
       <c r="B136" s="17" t="s">
         <v>933</v>
       </c>
@@ -6467,7 +6433,7 @@
         <v>57133.2</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6">
       <c r="B137" s="17" t="s">
         <v>933</v>
       </c>
@@ -6485,7 +6451,7 @@
         <v>72183.599999999991</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6">
       <c r="B138" s="17" t="s">
         <v>933</v>
       </c>
@@ -6503,7 +6469,7 @@
         <v>82045.2</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6">
       <c r="B139" s="17" t="s">
         <v>933</v>
       </c>
@@ -6521,7 +6487,7 @@
         <v>103598.39999999999</v>
       </c>
     </row>
-    <row r="140" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6" s="11" customFormat="1">
       <c r="B140" s="17" t="s">
         <v>818</v>
       </c>
@@ -6539,7 +6505,7 @@
         <v>55850.400000000001</v>
       </c>
     </row>
-    <row r="141" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6" s="11" customFormat="1">
       <c r="B141" s="17" t="s">
         <v>818</v>
       </c>
@@ -6557,7 +6523,7 @@
         <v>61555.199999999997</v>
       </c>
     </row>
-    <row r="142" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6" s="11" customFormat="1">
       <c r="B142" s="17" t="s">
         <v>818</v>
       </c>
@@ -6575,7 +6541,7 @@
         <v>64748.399999999994</v>
       </c>
     </row>
-    <row r="143" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:6" s="11" customFormat="1">
       <c r="B143" s="17" t="s">
         <v>818</v>
       </c>
@@ -6593,7 +6559,7 @@
         <v>64748.399999999994</v>
       </c>
     </row>
-    <row r="144" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6" s="11" customFormat="1">
       <c r="B144" s="17" t="s">
         <v>818</v>
       </c>
@@ -6611,7 +6577,7 @@
         <v>64748.399999999994</v>
       </c>
     </row>
-    <row r="145" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6" s="11" customFormat="1">
       <c r="B145" s="17" t="s">
         <v>818</v>
       </c>
@@ -6629,7 +6595,7 @@
         <v>72499.199999999997</v>
       </c>
     </row>
-    <row r="146" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" s="11" customFormat="1">
       <c r="B146" s="17" t="s">
         <v>818</v>
       </c>
@@ -6647,7 +6613,7 @@
         <v>82984.800000000003</v>
       </c>
     </row>
-    <row r="147" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6" s="11" customFormat="1">
       <c r="B147" s="17" t="s">
         <v>818</v>
       </c>
@@ -6665,7 +6631,7 @@
         <v>82984.800000000003</v>
       </c>
     </row>
-    <row r="148" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" s="11" customFormat="1">
       <c r="B148" s="17" t="s">
         <v>818</v>
       </c>
@@ -6683,7 +6649,7 @@
         <v>79563.599999999991</v>
       </c>
     </row>
-    <row r="149" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" s="11" customFormat="1">
       <c r="B149" s="17" t="s">
         <v>818</v>
       </c>
@@ -6701,7 +6667,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="150" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" s="11" customFormat="1">
       <c r="B150" s="17" t="s">
         <v>818</v>
       </c>
@@ -6719,7 +6685,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="151" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6" s="11" customFormat="1">
       <c r="B151" s="17" t="s">
         <v>818</v>
       </c>
@@ -6737,7 +6703,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="152" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" s="11" customFormat="1">
       <c r="B152" s="17" t="s">
         <v>818</v>
       </c>
@@ -6755,7 +6721,7 @@
         <v>100315.2</v>
       </c>
     </row>
-    <row r="153" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" s="11" customFormat="1">
       <c r="B153" s="17" t="s">
         <v>818</v>
       </c>
@@ -6773,7 +6739,7 @@
         <v>115815.59999999999</v>
       </c>
     </row>
-    <row r="154" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" s="11" customFormat="1">
       <c r="B154" s="17" t="s">
         <v>818</v>
       </c>
@@ -6791,7 +6757,7 @@
         <v>115815.59999999999</v>
       </c>
     </row>
-    <row r="155" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6" s="11" customFormat="1">
       <c r="B155" s="17" t="s">
         <v>818</v>
       </c>
@@ -6809,7 +6775,7 @@
         <v>151380</v>
       </c>
     </row>
-    <row r="156" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" s="11" customFormat="1">
       <c r="B156" s="17" t="s">
         <v>818</v>
       </c>
@@ -6827,7 +6793,7 @@
         <v>151380</v>
       </c>
     </row>
-    <row r="157" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6" s="11" customFormat="1">
       <c r="B157" s="17" t="s">
         <v>818</v>
       </c>
@@ -6845,7 +6811,7 @@
         <v>250782</v>
       </c>
     </row>
-    <row r="158" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" s="11" customFormat="1">
       <c r="B158" s="17" t="s">
         <v>818</v>
       </c>
@@ -6863,7 +6829,7 @@
         <v>279730.8</v>
       </c>
     </row>
-    <row r="159" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6" s="11" customFormat="1">
       <c r="B159" s="17" t="s">
         <v>819</v>
       </c>
@@ -6881,7 +6847,7 @@
         <v>55850.400000000001</v>
       </c>
     </row>
-    <row r="160" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" s="11" customFormat="1">
       <c r="B160" s="17" t="s">
         <v>819</v>
       </c>
@@ -6899,7 +6865,7 @@
         <v>61555.199999999997</v>
       </c>
     </row>
-    <row r="161" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" s="11" customFormat="1">
       <c r="B161" s="17" t="s">
         <v>819</v>
       </c>
@@ -6917,7 +6883,7 @@
         <v>61555.199999999997</v>
       </c>
     </row>
-    <row r="162" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" s="11" customFormat="1">
       <c r="B162" s="17" t="s">
         <v>819</v>
       </c>
@@ -6935,7 +6901,7 @@
         <v>64748.399999999994</v>
       </c>
     </row>
-    <row r="163" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" s="11" customFormat="1">
       <c r="B163" s="17" t="s">
         <v>819</v>
       </c>
@@ -6953,7 +6919,7 @@
         <v>64748.399999999994</v>
       </c>
     </row>
-    <row r="164" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" s="11" customFormat="1">
       <c r="B164" s="17" t="s">
         <v>819</v>
       </c>
@@ -6971,7 +6937,7 @@
         <v>72499.199999999997</v>
       </c>
     </row>
-    <row r="165" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" s="11" customFormat="1">
       <c r="B165" s="17" t="s">
         <v>819</v>
       </c>
@@ -6989,7 +6955,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="166" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6" s="11" customFormat="1">
       <c r="B166" s="17" t="s">
         <v>819</v>
       </c>
@@ -7007,7 +6973,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="167" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6" s="11" customFormat="1">
       <c r="B167" s="17" t="s">
         <v>888</v>
       </c>
@@ -7025,7 +6991,7 @@
         <v>83892</v>
       </c>
     </row>
-    <row r="168" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" s="11" customFormat="1">
       <c r="B168" s="17" t="s">
         <v>819</v>
       </c>
@@ -7043,7 +7009,7 @@
         <v>93397.2</v>
       </c>
     </row>
-    <row r="169" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6" s="11" customFormat="1">
       <c r="B169" s="17" t="s">
         <v>819</v>
       </c>
@@ -7061,7 +7027,7 @@
         <v>101907.59999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6" s="11" customFormat="1">
       <c r="B170" s="17" t="s">
         <v>819</v>
       </c>
@@ -7079,7 +7045,7 @@
         <v>115815.59999999999</v>
       </c>
     </row>
-    <row r="171" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6" s="11" customFormat="1">
       <c r="B171" s="17" t="s">
         <v>819</v>
       </c>
@@ -7097,7 +7063,7 @@
         <v>115815.59999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6" s="11" customFormat="1">
       <c r="B172" s="17" t="s">
         <v>819</v>
       </c>
@@ -7115,7 +7081,7 @@
         <v>151380</v>
       </c>
     </row>
-    <row r="173" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6" s="11" customFormat="1">
       <c r="B173" s="17" t="s">
         <v>819</v>
       </c>
@@ -7133,7 +7099,7 @@
         <v>151380</v>
       </c>
     </row>
-    <row r="174" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6" s="11" customFormat="1">
       <c r="B174" s="17" t="s">
         <v>819</v>
       </c>
@@ -7151,7 +7117,7 @@
         <v>236961.59999999998</v>
       </c>
     </row>
-    <row r="175" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6" s="11" customFormat="1">
       <c r="B175" s="17" t="s">
         <v>819</v>
       </c>
@@ -7169,7 +7135,7 @@
         <v>250782</v>
       </c>
     </row>
-    <row r="176" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6" s="11" customFormat="1">
       <c r="B176" s="17" t="s">
         <v>819</v>
       </c>
@@ -7187,7 +7153,7 @@
         <v>279730.8</v>
       </c>
     </row>
-    <row r="177" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" s="11" customFormat="1">
       <c r="B177" s="17" t="s">
         <v>819</v>
       </c>
@@ -7205,7 +7171,7 @@
         <v>279730.8</v>
       </c>
     </row>
-    <row r="178" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" s="11" customFormat="1">
       <c r="B178" s="17" t="s">
         <v>819</v>
       </c>
@@ -7223,7 +7189,7 @@
         <v>343592.39999999997</v>
       </c>
     </row>
-    <row r="179" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" s="11" customFormat="1">
       <c r="B179" s="34" t="s">
         <v>210</v>
       </c>
@@ -7240,8 +7206,11 @@
         <f t="shared" si="2"/>
         <v>29162.399999999998</v>
       </c>
-    </row>
-    <row r="180" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G179" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" s="11" customFormat="1">
       <c r="B180" s="34" t="s">
         <v>210</v>
       </c>
@@ -7258,8 +7227,11 @@
         <f t="shared" si="2"/>
         <v>33416.400000000001</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G180" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" s="11" customFormat="1">
       <c r="B181" s="34" t="s">
         <v>210</v>
       </c>
@@ -7276,8 +7248,11 @@
         <f t="shared" si="2"/>
         <v>39106.799999999996</v>
       </c>
-    </row>
-    <row r="182" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G181" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" s="11" customFormat="1">
       <c r="B182" s="34" t="s">
         <v>210</v>
       </c>
@@ -7294,8 +7269,11 @@
         <f t="shared" si="2"/>
         <v>55699.199999999997</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G182" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" s="11" customFormat="1">
       <c r="B183" s="34" t="s">
         <v>210</v>
       </c>
@@ -7312,8 +7290,11 @@
         <f t="shared" si="2"/>
         <v>64467.6</v>
       </c>
-    </row>
-    <row r="184" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G183" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" s="11" customFormat="1">
       <c r="B184" s="34" t="s">
         <v>210</v>
       </c>
@@ -7330,8 +7311,11 @@
         <f t="shared" si="2"/>
         <v>69682.8</v>
       </c>
-    </row>
-    <row r="185" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G184" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" s="11" customFormat="1">
       <c r="B185" s="34" t="s">
         <v>210</v>
       </c>
@@ -7348,8 +7332,11 @@
         <f t="shared" si="2"/>
         <v>83512.800000000003</v>
       </c>
-    </row>
-    <row r="186" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G185" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" s="11" customFormat="1">
       <c r="B186" s="34" t="s">
         <v>210</v>
       </c>
@@ -7366,8 +7353,11 @@
         <f t="shared" si="2"/>
         <v>85798.8</v>
       </c>
-    </row>
-    <row r="187" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G186" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" s="11" customFormat="1">
       <c r="B187" s="34" t="s">
         <v>210</v>
       </c>
@@ -7384,8 +7374,11 @@
         <f t="shared" si="2"/>
         <v>115660.8</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G187" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" s="11" customFormat="1">
       <c r="B188" s="34" t="s">
         <v>210</v>
       </c>
@@ -7402,8 +7395,11 @@
         <f t="shared" si="2"/>
         <v>136752</v>
       </c>
-    </row>
-    <row r="189" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G188" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" s="11" customFormat="1">
       <c r="B189" s="34" t="s">
         <v>210</v>
       </c>
@@ -7420,8 +7416,11 @@
         <f t="shared" si="2"/>
         <v>159966</v>
       </c>
-    </row>
-    <row r="190" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G189" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" s="11" customFormat="1">
       <c r="B190" s="34" t="s">
         <v>221</v>
       </c>
@@ -7438,8 +7437,11 @@
         <f t="shared" si="2"/>
         <v>26811.599999999999</v>
       </c>
-    </row>
-    <row r="191" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G190" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" s="11" customFormat="1">
       <c r="B191" s="34" t="s">
         <v>221</v>
       </c>
@@ -7456,8 +7458,11 @@
         <f t="shared" si="2"/>
         <v>29162.399999999998</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G191" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" s="11" customFormat="1">
       <c r="B192" s="34" t="s">
         <v>221</v>
       </c>
@@ -7474,8 +7479,11 @@
         <f t="shared" si="2"/>
         <v>33416.400000000001</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G192" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" s="11" customFormat="1">
       <c r="B193" s="34" t="s">
         <v>221</v>
       </c>
@@ -7492,8 +7500,11 @@
         <f t="shared" si="2"/>
         <v>39106.799999999996</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G193" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" s="11" customFormat="1">
       <c r="B194" s="34" t="s">
         <v>221</v>
       </c>
@@ -7510,8 +7521,11 @@
         <f t="shared" si="2"/>
         <v>55699.199999999997</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G194" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" s="11" customFormat="1">
       <c r="B195" s="34" t="s">
         <v>221</v>
       </c>
@@ -7528,8 +7542,11 @@
         <f t="shared" si="2"/>
         <v>64467.6</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G195" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" s="11" customFormat="1">
       <c r="B196" s="34" t="s">
         <v>221</v>
       </c>
@@ -7546,8 +7563,11 @@
         <f t="shared" si="2"/>
         <v>69682.8</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G196" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" s="11" customFormat="1">
       <c r="B197" s="34" t="s">
         <v>221</v>
       </c>
@@ -7564,8 +7584,11 @@
         <f t="shared" si="2"/>
         <v>83512.800000000003</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G197" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" s="11" customFormat="1">
       <c r="B198" s="34" t="s">
         <v>221</v>
       </c>
@@ -7582,8 +7605,11 @@
         <f t="shared" si="2"/>
         <v>85798.8</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G198" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" s="11" customFormat="1">
       <c r="B199" s="34" t="s">
         <v>221</v>
       </c>
@@ -7600,8 +7626,11 @@
         <f t="shared" si="2"/>
         <v>115660.8</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G199" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" s="11" customFormat="1">
       <c r="B200" s="34" t="s">
         <v>221</v>
       </c>
@@ -7618,8 +7647,11 @@
         <f t="shared" si="2"/>
         <v>136752</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G200" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" s="11" customFormat="1">
       <c r="B201" s="34" t="s">
         <v>221</v>
       </c>
@@ -7636,8 +7668,11 @@
         <f t="shared" si="2"/>
         <v>159966</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G201" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" s="11" customFormat="1">
       <c r="B202" s="34" t="s">
         <v>233</v>
       </c>
@@ -7654,8 +7689,11 @@
         <f t="shared" si="2"/>
         <v>64467.6</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" s="11" customFormat="1">
       <c r="B203" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7672,8 +7710,11 @@
         <f t="shared" si="2"/>
         <v>69862.8</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G203" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" s="11" customFormat="1">
       <c r="B204" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7690,8 +7731,11 @@
         <f t="shared" si="2"/>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G204" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" s="11" customFormat="1">
       <c r="B205" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7708,8 +7752,11 @@
         <f t="shared" ref="F205:F268" si="3">E205*1.2</f>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G205" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" s="11" customFormat="1">
       <c r="B206" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7726,8 +7773,11 @@
         <f t="shared" si="3"/>
         <v>94340.4</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G206" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" s="11" customFormat="1">
       <c r="B207" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7744,8 +7794,11 @@
         <f t="shared" si="3"/>
         <v>105630</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G207" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" s="11" customFormat="1">
       <c r="B208" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7762,8 +7815,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G208" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" s="11" customFormat="1">
       <c r="B209" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7780,8 +7836,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="210" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G209" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" s="11" customFormat="1">
       <c r="B210" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7798,8 +7857,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G210" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" s="11" customFormat="1">
       <c r="B211" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7816,8 +7878,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="212" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G211" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" s="11" customFormat="1">
       <c r="B212" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7834,8 +7899,11 @@
         <f t="shared" si="3"/>
         <v>152790</v>
       </c>
-    </row>
-    <row r="213" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G212" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" s="11" customFormat="1">
       <c r="B213" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7852,8 +7920,11 @@
         <f t="shared" si="3"/>
         <v>158601.60000000001</v>
       </c>
-    </row>
-    <row r="214" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G213" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" s="11" customFormat="1">
       <c r="B214" s="34" t="s">
         <v>1045</v>
       </c>
@@ -7870,8 +7941,11 @@
         <f t="shared" si="3"/>
         <v>176026.8</v>
       </c>
-    </row>
-    <row r="215" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G214" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" s="11" customFormat="1">
       <c r="B215" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7888,8 +7962,11 @@
         <f t="shared" si="3"/>
         <v>69862.8</v>
       </c>
-    </row>
-    <row r="216" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" s="11" customFormat="1">
       <c r="B216" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7906,8 +7983,11 @@
         <f t="shared" si="3"/>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="217" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G216" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" s="11" customFormat="1">
       <c r="B217" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7924,8 +8004,11 @@
         <f t="shared" si="3"/>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G217" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" s="11" customFormat="1">
       <c r="B218" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7942,8 +8025,11 @@
         <f t="shared" si="3"/>
         <v>94340.4</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G218" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" s="11" customFormat="1">
       <c r="B219" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7960,8 +8046,11 @@
         <f t="shared" si="3"/>
         <v>105630</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G219" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" s="11" customFormat="1">
       <c r="B220" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7978,8 +8067,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G220" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" s="11" customFormat="1">
       <c r="B221" s="34" t="s">
         <v>1046</v>
       </c>
@@ -7996,8 +8088,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="222" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G221" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" s="11" customFormat="1">
       <c r="B222" s="34" t="s">
         <v>1046</v>
       </c>
@@ -8014,8 +8109,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="223" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G222" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" s="11" customFormat="1">
       <c r="B223" s="34" t="s">
         <v>1046</v>
       </c>
@@ -8032,8 +8130,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="224" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G223" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" s="11" customFormat="1">
       <c r="B224" s="34" t="s">
         <v>1046</v>
       </c>
@@ -8050,8 +8151,11 @@
         <f t="shared" si="3"/>
         <v>152790</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G224" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" s="11" customFormat="1">
       <c r="B225" s="34" t="s">
         <v>1046</v>
       </c>
@@ -8068,8 +8172,11 @@
         <f t="shared" si="3"/>
         <v>158601.60000000001</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G225" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" s="11" customFormat="1">
       <c r="B226" s="34" t="s">
         <v>1046</v>
       </c>
@@ -8086,8 +8193,11 @@
         <f t="shared" si="3"/>
         <v>176026.8</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G226" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" s="11" customFormat="1">
       <c r="B227" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8104,8 +8214,11 @@
         <f t="shared" si="3"/>
         <v>69862.8</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G227" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" s="11" customFormat="1">
       <c r="B228" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8122,8 +8235,11 @@
         <f t="shared" si="3"/>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="229" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" s="11" customFormat="1">
       <c r="B229" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8140,8 +8256,11 @@
         <f t="shared" si="3"/>
         <v>89185.2</v>
       </c>
-    </row>
-    <row r="230" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G229" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" s="11" customFormat="1">
       <c r="B230" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8158,8 +8277,11 @@
         <f t="shared" si="3"/>
         <v>94340.4</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G230" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" s="11" customFormat="1">
       <c r="B231" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8176,8 +8298,11 @@
         <f t="shared" si="3"/>
         <v>105630</v>
       </c>
-    </row>
-    <row r="232" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G231" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" s="11" customFormat="1">
       <c r="B232" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8194,8 +8319,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G232" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" s="11" customFormat="1">
       <c r="B233" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8212,8 +8340,11 @@
         <f t="shared" si="3"/>
         <v>113832</v>
       </c>
-    </row>
-    <row r="234" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G233" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" s="11" customFormat="1">
       <c r="B234" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8230,8 +8361,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G234" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" s="11" customFormat="1">
       <c r="B235" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8248,8 +8382,11 @@
         <f t="shared" si="3"/>
         <v>131193.60000000001</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G235" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" s="11" customFormat="1">
       <c r="B236" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8266,8 +8403,11 @@
         <f t="shared" si="3"/>
         <v>152790</v>
       </c>
-    </row>
-    <row r="237" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G236" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" s="11" customFormat="1">
       <c r="B237" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8284,8 +8424,11 @@
         <f t="shared" si="3"/>
         <v>158601.60000000001</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G237" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" s="11" customFormat="1">
       <c r="B238" s="34" t="s">
         <v>1047</v>
       </c>
@@ -8302,8 +8445,11 @@
         <f t="shared" si="3"/>
         <v>176026.8</v>
       </c>
-    </row>
-    <row r="239" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G238" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" s="11" customFormat="1">
       <c r="B239" s="11" t="s">
         <v>596</v>
       </c>
@@ -8321,7 +8467,7 @@
         <v>6254.4</v>
       </c>
     </row>
-    <row r="240" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" s="11" customFormat="1">
       <c r="B240" s="17" t="s">
         <v>596</v>
       </c>
@@ -8339,7 +8485,7 @@
         <v>3621.6</v>
       </c>
     </row>
-    <row r="241" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6" s="11" customFormat="1">
       <c r="B241" s="11" t="s">
         <v>596</v>
       </c>
@@ -8357,7 +8503,7 @@
         <v>6585.5999999999995</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6">
       <c r="B242" s="11" t="s">
         <v>596</v>
       </c>
@@ -8375,7 +8521,7 @@
         <v>4256.3999999999996</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6">
       <c r="B243" s="11" t="s">
         <v>596</v>
       </c>
@@ -8393,7 +8539,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6">
       <c r="B244" s="11" t="s">
         <v>596</v>
       </c>
@@ -8411,7 +8557,7 @@
         <v>5401.2</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6">
       <c r="B245" s="11" t="s">
         <v>596</v>
       </c>
@@ -8429,7 +8575,7 @@
         <v>5685.5999999999995</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6">
       <c r="B246" s="11" t="s">
         <v>596</v>
       </c>
@@ -8447,7 +8593,7 @@
         <v>6812.4</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6">
       <c r="B247" s="11" t="s">
         <v>596</v>
       </c>
@@ -8465,7 +8611,7 @@
         <v>7384.7999999999993</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:6">
       <c r="B248" s="11" t="s">
         <v>596</v>
       </c>
@@ -8483,7 +8629,7 @@
         <v>8521.1999999999989</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6">
       <c r="B249" s="11" t="s">
         <v>596</v>
       </c>
@@ -8501,7 +8647,7 @@
         <v>8521.1999999999989</v>
       </c>
     </row>
-    <row r="250" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:6" s="11" customFormat="1">
       <c r="B250" s="11" t="s">
         <v>596</v>
       </c>
@@ -8519,7 +8665,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:6">
       <c r="B251" s="11" t="s">
         <v>596</v>
       </c>
@@ -8537,7 +8683,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6">
       <c r="B252" s="11" t="s">
         <v>596</v>
       </c>
@@ -8555,7 +8701,7 @@
         <v>6453.5999999999995</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:6">
       <c r="B253" s="11" t="s">
         <v>596</v>
       </c>
@@ -8573,7 +8719,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:6">
       <c r="B254" s="11" t="s">
         <v>596</v>
       </c>
@@ -8591,7 +8737,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6">
       <c r="B255" s="11" t="s">
         <v>596</v>
       </c>
@@ -8609,7 +8755,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6">
       <c r="B256" s="11" t="s">
         <v>596</v>
       </c>
@@ -8627,7 +8773,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:6">
       <c r="B257" s="11" t="s">
         <v>596</v>
       </c>
@@ -8645,7 +8791,7 @@
         <v>6892.8</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:6">
       <c r="B258" s="11" t="s">
         <v>596</v>
       </c>
@@ -8663,7 +8809,7 @@
         <v>7538.4</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:6">
       <c r="B259" s="11" t="s">
         <v>596</v>
       </c>
@@ -8681,7 +8827,7 @@
         <v>7538.4</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:6">
       <c r="B260" s="11" t="s">
         <v>596</v>
       </c>
@@ -8699,7 +8845,7 @@
         <v>7753.2</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:6">
       <c r="B261" s="11" t="s">
         <v>596</v>
       </c>
@@ -8717,7 +8863,7 @@
         <v>7963.2</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:6">
       <c r="B262" s="11" t="s">
         <v>596</v>
       </c>
@@ -8735,7 +8881,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:6">
       <c r="B263" s="11" t="s">
         <v>596</v>
       </c>
@@ -8753,7 +8899,7 @@
         <v>7203.5999999999995</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:6">
       <c r="B264" s="11" t="s">
         <v>596</v>
       </c>
@@ -8771,7 +8917,7 @@
         <v>7538.4</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:6">
       <c r="B265" s="11" t="s">
         <v>596</v>
       </c>
@@ -8789,7 +8935,7 @@
         <v>8606.4</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:6">
       <c r="B266" s="11" t="s">
         <v>596</v>
       </c>
@@ -8807,7 +8953,7 @@
         <v>9685.1999999999989</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:6">
       <c r="B267" s="11" t="s">
         <v>596</v>
       </c>
@@ -8825,7 +8971,7 @@
         <v>10124.4</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:6">
       <c r="B268" s="11" t="s">
         <v>596</v>
       </c>
@@ -8843,7 +8989,7 @@
         <v>11192.4</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:6">
       <c r="B269" s="11" t="s">
         <v>596</v>
       </c>
@@ -8861,7 +9007,7 @@
         <v>12692.4</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:6">
       <c r="B270" s="11" t="s">
         <v>596</v>
       </c>
@@ -8879,7 +9025,7 @@
         <v>13774.8</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:6">
       <c r="B271" s="11" t="s">
         <v>596</v>
       </c>
@@ -8897,7 +9043,7 @@
         <v>14637.6</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:6">
       <c r="B272" s="11" t="s">
         <v>596</v>
       </c>
@@ -8915,7 +9061,7 @@
         <v>15709.199999999999</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6">
       <c r="B273" s="11" t="s">
         <v>596</v>
       </c>
@@ -8933,7 +9079,7 @@
         <v>17000.399999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:6">
       <c r="B274" s="11" t="s">
         <v>596</v>
       </c>
@@ -8951,7 +9097,7 @@
         <v>18081.599999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:6">
       <c r="B275" s="11" t="s">
         <v>596</v>
       </c>
@@ -8969,7 +9115,7 @@
         <v>19150.8</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:6">
       <c r="B276" s="11" t="s">
         <v>596</v>
       </c>
@@ -8987,7 +9133,7 @@
         <v>20234.399999999998</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:6">
       <c r="B277" s="11" t="s">
         <v>596</v>
       </c>
@@ -9005,7 +9151,7 @@
         <v>23241.599999999999</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:6">
       <c r="B278" s="11" t="s">
         <v>596</v>
       </c>
@@ -9023,7 +9169,7 @@
         <v>29053.200000000001</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:6">
       <c r="B279" s="11" t="s">
         <v>596</v>
       </c>
@@ -9041,7 +9187,7 @@
         <v>32278.799999999999</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:6">
       <c r="B280" s="11" t="s">
         <v>596</v>
       </c>
@@ -9059,7 +9205,7 @@
         <v>39816</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:6">
       <c r="B281" s="11" t="s">
         <v>596</v>
       </c>
@@ -9077,7 +9223,7 @@
         <v>6670.8</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:6">
       <c r="B282" s="11" t="s">
         <v>596</v>
       </c>
@@ -9095,7 +9241,7 @@
         <v>6892.8</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:6">
       <c r="B283" s="11" t="s">
         <v>596</v>
       </c>
@@ -9113,7 +9259,7 @@
         <v>7538.4</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:6">
       <c r="B284" s="11" t="s">
         <v>596</v>
       </c>
@@ -9131,7 +9277,7 @@
         <v>8606.4</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:6">
       <c r="B285" s="11" t="s">
         <v>596</v>
       </c>
@@ -9149,7 +9295,7 @@
         <v>9685.1999999999989</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:6">
       <c r="B286" s="11" t="s">
         <v>596</v>
       </c>
@@ -9167,7 +9313,7 @@
         <v>10124.4</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:6">
       <c r="B287" s="11" t="s">
         <v>596</v>
       </c>
@@ -9185,7 +9331,7 @@
         <v>11192.4</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:6">
       <c r="B288" s="11" t="s">
         <v>596</v>
       </c>
@@ -9203,7 +9349,7 @@
         <v>13774.8</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:6">
       <c r="B289" s="11" t="s">
         <v>596</v>
       </c>
@@ -9221,7 +9367,7 @@
         <v>14637.6</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:6">
       <c r="B290" s="11" t="s">
         <v>596</v>
       </c>
@@ -9239,7 +9385,7 @@
         <v>15709.199999999999</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6">
       <c r="B291" s="11" t="s">
         <v>596</v>
       </c>
@@ -9257,7 +9403,7 @@
         <v>17000.399999999998</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:6">
       <c r="B292" s="11" t="s">
         <v>596</v>
       </c>
@@ -9275,7 +9421,7 @@
         <v>18081.599999999999</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:6">
       <c r="B293" s="11" t="s">
         <v>596</v>
       </c>
@@ -9293,7 +9439,7 @@
         <v>19150.8</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:6">
       <c r="B294" s="11" t="s">
         <v>596</v>
       </c>
@@ -9311,7 +9457,7 @@
         <v>20234.399999999998</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:6">
       <c r="B295" s="11" t="s">
         <v>596</v>
       </c>
@@ -9329,7 +9475,7 @@
         <v>23241.599999999999</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:6">
       <c r="B296" s="11" t="s">
         <v>596</v>
       </c>
@@ -9347,7 +9493,7 @@
         <v>29053.200000000001</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:6">
       <c r="B297" s="11" t="s">
         <v>596</v>
       </c>
@@ -9365,7 +9511,7 @@
         <v>32278.799999999999</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:6">
       <c r="B298" s="11" t="s">
         <v>596</v>
       </c>
@@ -9383,7 +9529,7 @@
         <v>39816</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:6">
       <c r="B299" s="11" t="s">
         <v>596</v>
       </c>
@@ -9401,7 +9547,7 @@
         <v>5169.5999999999995</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:6">
       <c r="B300" s="11" t="s">
         <v>596</v>
       </c>
@@ -9419,7 +9565,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:6">
       <c r="B301" s="11" t="s">
         <v>596</v>
       </c>
@@ -9437,7 +9583,7 @@
         <v>6892.8</v>
       </c>
     </row>
-    <row r="302" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:6" s="11" customFormat="1">
       <c r="B302" s="11" t="s">
         <v>596</v>
       </c>
@@ -9455,7 +9601,7 @@
         <v>7791.5999999999995</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:6">
       <c r="B303" s="11" t="s">
         <v>596</v>
       </c>
@@ -9473,7 +9619,7 @@
         <v>8827.1999999999989</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:6">
       <c r="B304" s="11" t="s">
         <v>596</v>
       </c>
@@ -9491,7 +9637,7 @@
         <v>10970.4</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:6">
       <c r="B305" s="11" t="s">
         <v>596</v>
       </c>
@@ -9509,7 +9655,7 @@
         <v>11623.199999999999</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:6">
       <c r="B306" s="11" t="s">
         <v>596</v>
       </c>
@@ -9527,7 +9673,7 @@
         <v>12483.6</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:6">
       <c r="B307" s="11" t="s">
         <v>596</v>
       </c>
@@ -9545,7 +9691,7 @@
         <v>13562.4</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:6">
       <c r="B308" s="11" t="s">
         <v>596</v>
       </c>
@@ -9563,7 +9709,7 @@
         <v>14418</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:6">
       <c r="B309" s="11" t="s">
         <v>596</v>
       </c>
@@ -9581,7 +9727,7 @@
         <v>16137.599999999999</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:6">
       <c r="B310" s="11" t="s">
         <v>596</v>
       </c>
@@ -9599,7 +9745,7 @@
         <v>18501.599999999999</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:6">
       <c r="B311" s="11" t="s">
         <v>596</v>
       </c>
@@ -9617,7 +9763,7 @@
         <v>23241.599999999999</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:6">
       <c r="B312" s="11" t="s">
         <v>596</v>
       </c>
@@ -9635,7 +9781,7 @@
         <v>25824</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:6">
       <c r="B313" s="11" t="s">
         <v>596</v>
       </c>
@@ -9653,7 +9799,7 @@
         <v>36154.799999999996</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:6">
       <c r="B314" s="17" t="s">
         <v>269</v>
       </c>
@@ -9671,7 +9817,7 @@
         <v>39922.799999999996</v>
       </c>
     </row>
-    <row r="315" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:6" s="11" customFormat="1">
       <c r="B315" s="17" t="s">
         <v>269</v>
       </c>
@@ -9689,7 +9835,7 @@
         <v>30409.199999999997</v>
       </c>
     </row>
-    <row r="316" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:6" s="11" customFormat="1">
       <c r="B316" s="5" t="s">
         <v>86</v>
       </c>
@@ -9707,7 +9853,7 @@
         <v>6585.5999999999995</v>
       </c>
     </row>
-    <row r="317" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:6" s="11" customFormat="1">
       <c r="B317" s="11" t="s">
         <v>596</v>
       </c>
@@ -9725,7 +9871,7 @@
         <v>27132</v>
       </c>
     </row>
-    <row r="318" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:6" s="11" customFormat="1">
       <c r="B318" s="11" t="s">
         <v>596</v>
       </c>
@@ -9743,7 +9889,7 @@
         <v>28616.399999999998</v>
       </c>
     </row>
-    <row r="319" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:6" s="11" customFormat="1">
       <c r="B319" s="11" t="s">
         <v>596</v>
       </c>
@@ -9761,7 +9907,7 @@
         <v>30601.199999999997</v>
       </c>
     </row>
-    <row r="320" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:6" s="11" customFormat="1">
       <c r="B320" s="11" t="s">
         <v>596</v>
       </c>
@@ -9779,7 +9925,7 @@
         <v>32352</v>
       </c>
     </row>
-    <row r="321" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:6" s="11" customFormat="1">
       <c r="B321" s="11" t="s">
         <v>596</v>
       </c>
@@ -9797,7 +9943,7 @@
         <v>10455.6</v>
       </c>
     </row>
-    <row r="322" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:6" s="11" customFormat="1">
       <c r="B322" s="11" t="s">
         <v>596</v>
       </c>
@@ -9815,7 +9961,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="323" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:6" s="11" customFormat="1">
       <c r="B323" s="11" t="s">
         <v>596</v>
       </c>
@@ -9833,7 +9979,7 @@
         <v>13935.6</v>
       </c>
     </row>
-    <row r="324" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:6" s="11" customFormat="1">
       <c r="B324" s="11" t="s">
         <v>596</v>
       </c>
@@ -9851,7 +9997,7 @@
         <v>16676.399999999998</v>
       </c>
     </row>
-    <row r="325" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:6" s="11" customFormat="1">
       <c r="B325" s="11" t="s">
         <v>596</v>
       </c>
@@ -9869,7 +10015,7 @@
         <v>17174.399999999998</v>
       </c>
     </row>
-    <row r="326" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:6" s="11" customFormat="1">
       <c r="B326" s="11" t="s">
         <v>596</v>
       </c>
@@ -9887,7 +10033,7 @@
         <v>17424</v>
       </c>
     </row>
-    <row r="327" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:6" s="11" customFormat="1">
       <c r="B327" s="11" t="s">
         <v>596</v>
       </c>
@@ -9905,7 +10051,7 @@
         <v>20592</v>
       </c>
     </row>
-    <row r="328" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:6" s="11" customFormat="1">
       <c r="B328" s="11" t="s">
         <v>596</v>
       </c>
@@ -9923,7 +10069,7 @@
         <v>21103.200000000001</v>
       </c>
     </row>
-    <row r="329" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:6" s="11" customFormat="1">
       <c r="B329" s="11" t="s">
         <v>596</v>
       </c>
@@ -9941,7 +10087,7 @@
         <v>21895.200000000001</v>
       </c>
     </row>
-    <row r="330" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:6" s="11" customFormat="1">
       <c r="B330" s="11" t="s">
         <v>596</v>
       </c>
@@ -9959,7 +10105,7 @@
         <v>23029.200000000001</v>
       </c>
     </row>
-    <row r="331" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:6" s="11" customFormat="1">
       <c r="B331" s="11" t="s">
         <v>596</v>
       </c>
@@ -9977,7 +10123,7 @@
         <v>24886.799999999999</v>
       </c>
     </row>
-    <row r="332" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:6" s="11" customFormat="1">
       <c r="B332" s="11" t="s">
         <v>596</v>
       </c>
@@ -9995,7 +10141,7 @@
         <v>25635.599999999999</v>
       </c>
     </row>
-    <row r="333" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:6" s="11" customFormat="1">
       <c r="B333" s="11" t="s">
         <v>596</v>
       </c>
@@ -10013,7 +10159,7 @@
         <v>27132</v>
       </c>
     </row>
-    <row r="334" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:6" s="11" customFormat="1">
       <c r="B334" s="11" t="s">
         <v>596</v>
       </c>
@@ -10031,7 +10177,7 @@
         <v>28616.399999999998</v>
       </c>
     </row>
-    <row r="335" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:6" s="11" customFormat="1">
       <c r="B335" s="11" t="s">
         <v>596</v>
       </c>
@@ -10049,7 +10195,7 @@
         <v>30601.199999999997</v>
       </c>
     </row>
-    <row r="336" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:6" s="11" customFormat="1">
       <c r="B336" s="11" t="s">
         <v>596</v>
       </c>
@@ -10067,7 +10213,7 @@
         <v>32352</v>
       </c>
     </row>
-    <row r="337" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:6" s="11" customFormat="1">
       <c r="B337" s="11" t="s">
         <v>596</v>
       </c>
@@ -10085,7 +10231,7 @@
         <v>39922.799999999996</v>
       </c>
     </row>
-    <row r="338" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:6" s="11" customFormat="1">
       <c r="B338" s="11" t="s">
         <v>596</v>
       </c>
@@ -10103,7 +10249,7 @@
         <v>48282</v>
       </c>
     </row>
-    <row r="339" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:6" s="11" customFormat="1">
       <c r="B339" s="11" t="s">
         <v>596</v>
       </c>
@@ -10121,7 +10267,7 @@
         <v>51696</v>
       </c>
     </row>
-    <row r="340" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:6" s="11" customFormat="1">
       <c r="B340" s="11" t="s">
         <v>596</v>
       </c>
@@ -10139,7 +10285,7 @@
         <v>54248.4</v>
       </c>
     </row>
-    <row r="341" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:6" s="11" customFormat="1">
       <c r="B341" s="11" t="s">
         <v>596</v>
       </c>
@@ -10157,7 +10303,7 @@
         <v>59728.799999999996</v>
       </c>
     </row>
-    <row r="342" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:6" s="11" customFormat="1">
       <c r="B342" s="11" t="s">
         <v>596</v>
       </c>
@@ -10175,7 +10321,7 @@
         <v>67690.8</v>
       </c>
     </row>
-    <row r="343" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:6" s="11" customFormat="1">
       <c r="B343" s="11" t="s">
         <v>596</v>
       </c>
@@ -10193,7 +10339,7 @@
         <v>93315.599999999991</v>
       </c>
     </row>
-    <row r="344" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:6" s="11" customFormat="1">
       <c r="B344" s="11" t="s">
         <v>596</v>
       </c>
@@ -10211,7 +10357,7 @@
         <v>17419.2</v>
       </c>
     </row>
-    <row r="345" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:6" s="11" customFormat="1">
       <c r="B345" s="11" t="s">
         <v>90</v>
       </c>
@@ -10229,7 +10375,7 @@
         <v>22326</v>
       </c>
     </row>
-    <row r="346" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:6" s="11" customFormat="1">
       <c r="B346" s="11" t="s">
         <v>90</v>
       </c>
@@ -10247,7 +10393,7 @@
         <v>30601.199999999997</v>
       </c>
     </row>
-    <row r="347" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:6" s="11" customFormat="1">
       <c r="B347" s="11" t="s">
         <v>90</v>
       </c>
@@ -10265,7 +10411,7 @@
         <v>44500.799999999996</v>
       </c>
     </row>
-    <row r="348" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:6" s="11" customFormat="1">
       <c r="B348" s="11" t="s">
         <v>87</v>
       </c>
@@ -10283,7 +10429,7 @@
         <v>8092.7999999999993</v>
       </c>
     </row>
-    <row r="349" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:6" s="11" customFormat="1">
       <c r="B349" s="11" t="s">
         <v>87</v>
       </c>
@@ -10301,7 +10447,7 @@
         <v>8092.7999999999993</v>
       </c>
     </row>
-    <row r="350" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:6" s="11" customFormat="1">
       <c r="B350" s="11" t="s">
         <v>87</v>
       </c>
@@ -10319,7 +10465,7 @@
         <v>8092.7999999999993</v>
       </c>
     </row>
-    <row r="351" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:6" s="11" customFormat="1">
       <c r="B351" s="11" t="s">
         <v>87</v>
       </c>
@@ -10337,7 +10483,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="352" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:6" s="11" customFormat="1">
       <c r="B352" s="11" t="s">
         <v>87</v>
       </c>
@@ -10355,7 +10501,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="353" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:6" s="11" customFormat="1">
       <c r="B353" s="11" t="s">
         <v>87</v>
       </c>
@@ -10373,7 +10519,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="354" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:6" s="11" customFormat="1">
       <c r="B354" s="11" t="s">
         <v>87</v>
       </c>
@@ -10391,7 +10537,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="355" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:6" s="11" customFormat="1">
       <c r="B355" s="11" t="s">
         <v>87</v>
       </c>
@@ -10409,7 +10555,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="356" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:6" s="11" customFormat="1">
       <c r="B356" s="11" t="s">
         <v>87</v>
       </c>
@@ -10427,7 +10573,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="357" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:6" s="11" customFormat="1">
       <c r="B357" s="11" t="s">
         <v>87</v>
       </c>
@@ -10445,7 +10591,7 @@
         <v>8607.6</v>
       </c>
     </row>
-    <row r="358" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:6" s="11" customFormat="1">
       <c r="B358" s="11" t="s">
         <v>87</v>
       </c>
@@ -10463,7 +10609,7 @@
         <v>9368.4</v>
       </c>
     </row>
-    <row r="359" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:6" s="11" customFormat="1">
       <c r="B359" s="11" t="s">
         <v>87</v>
       </c>
@@ -10481,7 +10627,7 @@
         <v>9368.4</v>
       </c>
     </row>
-    <row r="360" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:6" s="11" customFormat="1">
       <c r="B360" s="11" t="s">
         <v>87</v>
       </c>
@@ -10499,7 +10645,7 @@
         <v>9614.4</v>
       </c>
     </row>
-    <row r="361" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:6" s="11" customFormat="1">
       <c r="B361" s="11" t="s">
         <v>87</v>
       </c>
@@ -10517,7 +10663,7 @@
         <v>9870</v>
       </c>
     </row>
-    <row r="362" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:6" s="11" customFormat="1">
       <c r="B362" s="11" t="s">
         <v>87</v>
       </c>
@@ -10535,7 +10681,7 @@
         <v>10124.4</v>
       </c>
     </row>
-    <row r="363" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" s="11" customFormat="1">
       <c r="B363" s="11" t="s">
         <v>87</v>
       </c>
@@ -10553,7 +10699,7 @@
         <v>10124.4</v>
       </c>
     </row>
-    <row r="364" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:6" s="11" customFormat="1">
       <c r="B364" s="11" t="s">
         <v>87</v>
       </c>
@@ -10571,7 +10717,7 @@
         <v>10628.4</v>
       </c>
     </row>
-    <row r="365" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:6" s="11" customFormat="1">
       <c r="B365" s="11" t="s">
         <v>87</v>
       </c>
@@ -10589,7 +10735,7 @@
         <v>11163.6</v>
       </c>
     </row>
-    <row r="366" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:6" s="11" customFormat="1">
       <c r="B366" s="11" t="s">
         <v>87</v>
       </c>
@@ -10607,7 +10753,7 @@
         <v>11163.6</v>
       </c>
     </row>
-    <row r="367" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:6" s="11" customFormat="1">
       <c r="B367" s="11" t="s">
         <v>87</v>
       </c>
@@ -10625,7 +10771,7 @@
         <v>11958</v>
       </c>
     </row>
-    <row r="368" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:6" s="11" customFormat="1">
       <c r="B368" s="11" t="s">
         <v>87</v>
       </c>
@@ -10643,7 +10789,7 @@
         <v>11958</v>
       </c>
     </row>
-    <row r="369" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" s="11" customFormat="1">
       <c r="B369" s="11" t="s">
         <v>87</v>
       </c>
@@ -10661,7 +10807,7 @@
         <v>14878.8</v>
       </c>
     </row>
-    <row r="370" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" s="11" customFormat="1">
       <c r="B370" s="11" t="s">
         <v>87</v>
       </c>
@@ -10679,7 +10825,7 @@
         <v>17802</v>
       </c>
     </row>
-    <row r="371" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" s="11" customFormat="1">
       <c r="B371" s="11" t="s">
         <v>87</v>
       </c>
@@ -10697,7 +10843,7 @@
         <v>14878.8</v>
       </c>
     </row>
-    <row r="372" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" s="11" customFormat="1">
       <c r="B372" s="11" t="s">
         <v>87</v>
       </c>
@@ -10715,7 +10861,7 @@
         <v>18337.2</v>
       </c>
     </row>
-    <row r="373" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" s="11" customFormat="1">
       <c r="B373" s="11" t="s">
         <v>87</v>
       </c>
@@ -10733,7 +10879,7 @@
         <v>18603.599999999999</v>
       </c>
     </row>
-    <row r="374" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" s="11" customFormat="1">
       <c r="B374" s="11" t="s">
         <v>87</v>
       </c>
@@ -10751,7 +10897,7 @@
         <v>22326</v>
       </c>
     </row>
-    <row r="375" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" s="11" customFormat="1">
       <c r="B375" s="11" t="s">
         <v>87</v>
       </c>
@@ -10769,7 +10915,7 @@
         <v>23380.799999999999</v>
       </c>
     </row>
-    <row r="376" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:6" s="11" customFormat="1">
       <c r="B376" s="11" t="s">
         <v>87</v>
       </c>
@@ -10787,7 +10933,7 @@
         <v>25248</v>
       </c>
     </row>
-    <row r="377" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:6" s="11" customFormat="1">
       <c r="B377" s="11" t="s">
         <v>87</v>
       </c>
@@ -10805,7 +10951,7 @@
         <v>26570.399999999998</v>
       </c>
     </row>
-    <row r="378" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:6" s="11" customFormat="1">
       <c r="B378" s="11" t="s">
         <v>87</v>
       </c>
@@ -10823,7 +10969,7 @@
         <v>27364.799999999999</v>
       </c>
     </row>
-    <row r="379" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" s="11" customFormat="1">
       <c r="B379" s="11" t="s">
         <v>87</v>
       </c>
@@ -10841,7 +10987,7 @@
         <v>28968</v>
       </c>
     </row>
-    <row r="380" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:6" s="11" customFormat="1">
       <c r="B380" s="11" t="s">
         <v>193</v>
       </c>
@@ -10859,7 +11005,7 @@
         <v>321.59999999999997</v>
       </c>
     </row>
-    <row r="381" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:6" s="25" customFormat="1">
       <c r="B381" s="25" t="s">
         <v>47</v>
       </c>
@@ -10877,7 +11023,7 @@
         <v>321.59999999999997</v>
       </c>
     </row>
-    <row r="382" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:6" s="25" customFormat="1">
       <c r="B382" s="25" t="s">
         <v>47</v>
       </c>
@@ -10895,7 +11041,7 @@
         <v>321.59999999999997</v>
       </c>
     </row>
-    <row r="383" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:6" s="25" customFormat="1">
       <c r="B383" s="25" t="s">
         <v>47</v>
       </c>
@@ -10913,7 +11059,7 @@
         <v>321.59999999999997</v>
       </c>
     </row>
-    <row r="384" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:6" s="25" customFormat="1">
       <c r="B384" s="25" t="s">
         <v>47</v>
       </c>
@@ -10931,7 +11077,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="385" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:6" s="25" customFormat="1">
       <c r="B385" s="25" t="s">
         <v>47</v>
       </c>
@@ -10949,7 +11095,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="386" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:6" s="25" customFormat="1">
       <c r="B386" s="25" t="s">
         <v>47</v>
       </c>
@@ -10967,7 +11113,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="387" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:6" s="25" customFormat="1">
       <c r="B387" s="25" t="s">
         <v>47</v>
       </c>
@@ -10985,7 +11131,7 @@
         <v>361.2</v>
       </c>
     </row>
-    <row r="388" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:6" s="25" customFormat="1">
       <c r="B388" s="25" t="s">
         <v>47</v>
       </c>
@@ -11003,7 +11149,7 @@
         <v>385.2</v>
       </c>
     </row>
-    <row r="389" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" s="11" customFormat="1">
       <c r="B389" s="11" t="s">
         <v>290</v>
       </c>
@@ -11019,7 +11165,7 @@
         <v>2763.6</v>
       </c>
     </row>
-    <row r="390" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:6" s="11" customFormat="1">
       <c r="B390" s="25" t="s">
         <v>313</v>
       </c>
@@ -11035,7 +11181,7 @@
         <v>2150.4</v>
       </c>
     </row>
-    <row r="391" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" s="11" customFormat="1">
       <c r="B391" s="25" t="s">
         <v>314</v>
       </c>
@@ -11051,7 +11197,7 @@
         <v>2150.4</v>
       </c>
     </row>
-    <row r="392" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:6" s="11" customFormat="1">
       <c r="B392" s="25" t="s">
         <v>315</v>
       </c>
@@ -11067,7 +11213,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="393" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:6" s="11" customFormat="1">
       <c r="B393" s="25" t="s">
         <v>316</v>
       </c>
@@ -11083,7 +11229,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="394" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" s="11" customFormat="1">
       <c r="B394" s="25" t="s">
         <v>300</v>
       </c>
@@ -11098,7 +11244,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="395" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:6" s="11" customFormat="1">
       <c r="B395" s="25" t="s">
         <v>301</v>
       </c>
@@ -11113,7 +11259,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="396" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:6" s="11" customFormat="1">
       <c r="B396" s="25" t="s">
         <v>302</v>
       </c>
@@ -11128,7 +11274,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="397" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" s="11" customFormat="1">
       <c r="B397" s="25" t="s">
         <v>303</v>
       </c>
@@ -11143,7 +11289,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="398" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" s="11" customFormat="1">
       <c r="B398" s="25" t="s">
         <v>304</v>
       </c>
@@ -11158,7 +11304,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="399" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" s="11" customFormat="1">
       <c r="B399" s="25" t="s">
         <v>305</v>
       </c>
@@ -11173,7 +11319,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="400" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:6" s="11" customFormat="1">
       <c r="B400" s="25" t="s">
         <v>306</v>
       </c>
@@ -11188,7 +11334,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="401" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" s="11" customFormat="1">
       <c r="B401" s="25" t="s">
         <v>307</v>
       </c>
@@ -11203,7 +11349,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="402" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:6" s="11" customFormat="1">
       <c r="B402" s="25" t="s">
         <v>308</v>
       </c>
@@ -11218,7 +11364,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="403" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:6" s="11" customFormat="1">
       <c r="B403" s="25" t="s">
         <v>344</v>
       </c>
@@ -11233,7 +11379,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="404" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:6" s="11" customFormat="1">
       <c r="B404" s="25" t="s">
         <v>345</v>
       </c>
@@ -11248,7 +11394,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="405" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:6" s="11" customFormat="1">
       <c r="B405" s="25" t="s">
         <v>346</v>
       </c>
@@ -11263,7 +11409,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="406" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:6" s="11" customFormat="1">
       <c r="B406" s="25" t="s">
         <v>347</v>
       </c>
@@ -11278,7 +11424,7 @@
         <v>3044.4</v>
       </c>
     </row>
-    <row r="407" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:6" s="11" customFormat="1">
       <c r="B407" s="11" t="s">
         <v>157</v>
       </c>
@@ -11294,7 +11440,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="408" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:6" s="11" customFormat="1">
       <c r="B408" s="11" t="s">
         <v>159</v>
       </c>
@@ -11310,7 +11456,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="409" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:6" s="11" customFormat="1">
       <c r="B409" s="11" t="s">
         <v>159</v>
       </c>
@@ -11326,7 +11472,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="410" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:6" s="11" customFormat="1">
       <c r="B410" s="11" t="s">
         <v>161</v>
       </c>
@@ -11342,7 +11488,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="411" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:6" s="11" customFormat="1">
       <c r="B411" s="11" t="s">
         <v>336</v>
       </c>
@@ -11358,7 +11504,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="412" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:6" s="11" customFormat="1">
       <c r="B412" s="11" t="s">
         <v>971</v>
       </c>
@@ -11374,7 +11520,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="413" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:6" s="11" customFormat="1">
       <c r="B413" s="11" t="s">
         <v>995</v>
       </c>
@@ -11390,7 +11536,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="414" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:6" s="11" customFormat="1">
       <c r="B414" s="11" t="s">
         <v>887</v>
       </c>
@@ -11406,7 +11552,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="415" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:6" s="11" customFormat="1">
       <c r="B415" s="11" t="s">
         <v>163</v>
       </c>
@@ -11422,7 +11568,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="416" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:6" s="11" customFormat="1">
       <c r="B416" s="11" t="s">
         <v>164</v>
       </c>
@@ -11438,7 +11584,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="417" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:6" s="11" customFormat="1">
       <c r="B417" s="11" t="s">
         <v>165</v>
       </c>
@@ -11454,7 +11600,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="418" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:6" s="11" customFormat="1">
       <c r="B418" s="11" t="s">
         <v>166</v>
       </c>
@@ -11470,7 +11616,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="419" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:6" s="11" customFormat="1">
       <c r="B419" s="11" t="s">
         <v>167</v>
       </c>
@@ -11486,7 +11632,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="420" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:6" s="11" customFormat="1">
       <c r="B420" s="11" t="s">
         <v>168</v>
       </c>
@@ -11502,7 +11648,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="421" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:6" s="11" customFormat="1">
       <c r="B421" s="11" t="s">
         <v>169</v>
       </c>
@@ -11518,7 +11664,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="422" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:6" s="11" customFormat="1">
       <c r="B422" s="11" t="s">
         <v>170</v>
       </c>
@@ -11534,7 +11680,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="423" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:6" s="11" customFormat="1">
       <c r="B423" s="11" t="s">
         <v>171</v>
       </c>
@@ -11550,7 +11696,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="424" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:6" s="11" customFormat="1">
       <c r="B424" s="11" t="s">
         <v>173</v>
       </c>
@@ -11566,7 +11712,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="425" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:6" s="11" customFormat="1">
       <c r="B425" s="11" t="s">
         <v>174</v>
       </c>
@@ -11582,7 +11728,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="426" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:6" s="11" customFormat="1">
       <c r="B426" s="11" t="s">
         <v>175</v>
       </c>
@@ -11598,7 +11744,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="427" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:6" s="11" customFormat="1">
       <c r="B427" s="11" t="s">
         <v>177</v>
       </c>
@@ -11614,7 +11760,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="428" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:6" s="11" customFormat="1">
       <c r="B428" s="11" t="s">
         <v>179</v>
       </c>
@@ -11630,7 +11776,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="429" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:6" s="11" customFormat="1">
       <c r="B429" s="11" t="s">
         <v>180</v>
       </c>
@@ -11646,7 +11792,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="430" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:6" s="11" customFormat="1">
       <c r="B430" s="11" t="s">
         <v>181</v>
       </c>
@@ -11662,7 +11808,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="431" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:6" s="11" customFormat="1">
       <c r="B431" s="11" t="s">
         <v>182</v>
       </c>
@@ -11678,7 +11824,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="432" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:6" s="11" customFormat="1">
       <c r="B432" s="11" t="s">
         <v>184</v>
       </c>
@@ -11694,7 +11840,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="433" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:6" s="11" customFormat="1">
       <c r="B433" s="11" t="s">
         <v>186</v>
       </c>
@@ -11710,7 +11856,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="434" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:6" s="11" customFormat="1">
       <c r="B434" s="11" t="s">
         <v>336</v>
       </c>
@@ -11726,7 +11872,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="435" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:6" s="11" customFormat="1">
       <c r="B435" s="11" t="s">
         <v>188</v>
       </c>
@@ -11742,7 +11888,7 @@
         <v>3961.2</v>
       </c>
     </row>
-    <row r="436" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:6" s="11" customFormat="1">
       <c r="B436" s="11" t="s">
         <v>190</v>
       </c>
@@ -11758,7 +11904,7 @@
         <v>4263.5999999999995</v>
       </c>
     </row>
-    <row r="437" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:6" s="11" customFormat="1">
       <c r="B437" s="11" t="s">
         <v>828</v>
       </c>
@@ -11774,7 +11920,7 @@
         <v>12812.4</v>
       </c>
     </row>
-    <row r="438" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:6" s="11" customFormat="1">
       <c r="B438" s="11" t="s">
         <v>827</v>
       </c>
@@ -11789,7 +11935,7 @@
         <v>9980.4</v>
       </c>
     </row>
-    <row r="439" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:6" s="11" customFormat="1">
       <c r="B439" s="11" t="s">
         <v>825</v>
       </c>
@@ -11804,7 +11950,7 @@
         <v>15164.4</v>
       </c>
     </row>
-    <row r="440" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:6" s="11" customFormat="1">
       <c r="B440" s="11" t="s">
         <v>236</v>
       </c>
@@ -11819,7 +11965,7 @@
         <v>16569.599999999999</v>
       </c>
     </row>
-    <row r="441" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:6" s="11" customFormat="1">
       <c r="B441" s="11" t="s">
         <v>237</v>
       </c>
@@ -11834,7 +11980,7 @@
         <v>19048.8</v>
       </c>
     </row>
-    <row r="442" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:6" s="11" customFormat="1">
       <c r="B442" s="10" t="s">
         <v>239</v>
       </c>
@@ -11850,7 +11996,7 @@
         <v>7778.4</v>
       </c>
     </row>
-    <row r="443" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:6" s="11" customFormat="1">
       <c r="B443" s="14" t="s">
         <v>332</v>
       </c>
@@ -11868,7 +12014,7 @@
         <v>12892.8</v>
       </c>
     </row>
-    <row r="444" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:6" s="11" customFormat="1">
       <c r="B444" s="14" t="s">
         <v>332</v>
       </c>
@@ -11886,7 +12032,7 @@
         <v>14694</v>
       </c>
     </row>
-    <row r="445" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:6" s="11" customFormat="1">
       <c r="B445" s="14" t="s">
         <v>332</v>
       </c>
@@ -11904,7 +12050,7 @@
         <v>19910.399999999998</v>
       </c>
     </row>
-    <row r="446" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:6" s="11" customFormat="1">
       <c r="B446" s="10" t="s">
         <v>241</v>
       </c>
@@ -11922,7 +12068,7 @@
         <v>602.4</v>
       </c>
     </row>
-    <row r="447" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:6" s="11" customFormat="1">
       <c r="B447" s="10" t="s">
         <v>245</v>
       </c>
@@ -11940,7 +12086,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="448" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:6" s="11" customFormat="1">
       <c r="B448" s="10" t="s">
         <v>245</v>
       </c>
@@ -11958,7 +12104,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="449" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:6" s="11" customFormat="1">
       <c r="B449" s="10" t="s">
         <v>245</v>
       </c>
@@ -11976,7 +12122,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="450" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:6" s="11" customFormat="1">
       <c r="B450" s="10" t="s">
         <v>250</v>
       </c>
@@ -11994,7 +12140,7 @@
         <v>1768.8</v>
       </c>
     </row>
-    <row r="451" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:6" s="11" customFormat="1">
       <c r="B451" s="10" t="s">
         <v>250</v>
       </c>
@@ -12012,7 +12158,7 @@
         <v>1768.8</v>
       </c>
     </row>
-    <row r="452" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:6" s="11" customFormat="1">
       <c r="B452" s="10" t="s">
         <v>253</v>
       </c>
@@ -12030,7 +12176,7 @@
         <v>602.4</v>
       </c>
     </row>
-    <row r="453" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:6" s="11" customFormat="1">
       <c r="B453" s="10" t="s">
         <v>253</v>
       </c>
@@ -12048,7 +12194,7 @@
         <v>602.4</v>
       </c>
     </row>
-    <row r="454" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:6" s="11" customFormat="1">
       <c r="B454" s="10" t="s">
         <v>256</v>
       </c>
@@ -12066,7 +12212,7 @@
         <v>1047.5999999999999</v>
       </c>
     </row>
-    <row r="455" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:6" s="11" customFormat="1">
       <c r="B455" s="10" t="s">
         <v>256</v>
       </c>
@@ -12084,7 +12230,7 @@
         <v>1047.5999999999999</v>
       </c>
     </row>
-    <row r="456" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:6" s="11" customFormat="1">
       <c r="B456" s="10" t="s">
         <v>256</v>
       </c>
@@ -12102,7 +12248,7 @@
         <v>1047.5999999999999</v>
       </c>
     </row>
-    <row r="457" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:6" s="11" customFormat="1">
       <c r="B457" s="10" t="s">
         <v>260</v>
       </c>
@@ -12120,7 +12266,7 @@
         <v>1742.3999999999999</v>
       </c>
     </row>
-    <row r="458" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:6" s="11" customFormat="1">
       <c r="B458" s="10" t="s">
         <v>260</v>
       </c>
@@ -12138,7 +12284,7 @@
         <v>1742.3999999999999</v>
       </c>
     </row>
-    <row r="459" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:6" s="11" customFormat="1">
       <c r="B459" s="10" t="s">
         <v>263</v>
       </c>
@@ -12156,7 +12302,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="460" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:6" s="11" customFormat="1">
       <c r="B460" s="10" t="s">
         <v>263</v>
       </c>
@@ -12174,7 +12320,7 @@
         <v>1047.5999999999999</v>
       </c>
     </row>
-    <row r="461" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:6" s="11" customFormat="1">
       <c r="B461" s="10" t="s">
         <v>266</v>
       </c>
@@ -12192,7 +12338,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="462" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:6" s="11" customFormat="1">
       <c r="B462" s="11" t="s">
         <v>523</v>
       </c>
@@ -12210,7 +12356,7 @@
         <v>5762.4</v>
       </c>
     </row>
-    <row r="463" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:6" s="11" customFormat="1">
       <c r="B463" s="11" t="s">
         <v>523</v>
       </c>
@@ -12228,7 +12374,7 @@
         <v>5925.5999999999995</v>
       </c>
     </row>
-    <row r="464" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:6" s="11" customFormat="1">
       <c r="B464" s="11" t="s">
         <v>523</v>
       </c>
@@ -12246,7 +12392,7 @@
         <v>6996</v>
       </c>
     </row>
-    <row r="465" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:6" s="11" customFormat="1">
       <c r="B465" s="11" t="s">
         <v>523</v>
       </c>
@@ -12264,7 +12410,7 @@
         <v>9548.4</v>
       </c>
     </row>
-    <row r="466" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:6" s="11" customFormat="1">
       <c r="B466" s="11" t="s">
         <v>523</v>
       </c>
@@ -12282,7 +12428,7 @@
         <v>11853.6</v>
       </c>
     </row>
-    <row r="467" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:6" s="11" customFormat="1">
       <c r="B467" s="11" t="s">
         <v>523</v>
       </c>
@@ -12300,7 +12446,7 @@
         <v>7570.7999999999993</v>
       </c>
     </row>
-    <row r="468" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:6" s="11" customFormat="1">
       <c r="B468" s="11" t="s">
         <v>523</v>
       </c>
@@ -12318,7 +12464,7 @@
         <v>8725.1999999999989</v>
       </c>
     </row>
-    <row r="469" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:6" s="11" customFormat="1">
       <c r="B469" s="11" t="s">
         <v>523</v>
       </c>
@@ -12336,7 +12482,7 @@
         <v>13498.8</v>
       </c>
     </row>
-    <row r="470" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:6" s="11" customFormat="1">
       <c r="B470" s="11" t="s">
         <v>523</v>
       </c>
@@ -12354,7 +12500,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="471" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:6" s="11" customFormat="1">
       <c r="B471" s="11" t="s">
         <v>25</v>
       </c>
@@ -12372,7 +12518,7 @@
         <v>6996</v>
       </c>
     </row>
-    <row r="472" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:6" s="11" customFormat="1">
       <c r="B472" s="11" t="s">
         <v>523</v>
       </c>
@@ -12390,7 +12536,7 @@
         <v>7570.7999999999993</v>
       </c>
     </row>
-    <row r="473" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:6" s="11" customFormat="1">
       <c r="B473" s="11" t="s">
         <v>523</v>
       </c>
@@ -12408,7 +12554,7 @@
         <v>14322</v>
       </c>
     </row>
-    <row r="474" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:6" s="11" customFormat="1">
       <c r="B474" s="11" t="s">
         <v>28</v>
       </c>
@@ -12426,7 +12572,7 @@
         <v>34506</v>
       </c>
     </row>
-    <row r="475" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:6" s="11" customFormat="1">
       <c r="B475" s="11" t="s">
         <v>28</v>
       </c>
@@ -12444,7 +12590,7 @@
         <v>34506</v>
       </c>
     </row>
-    <row r="476" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:6" s="11" customFormat="1">
       <c r="B476" s="11" t="s">
         <v>28</v>
       </c>
@@ -12462,7 +12608,7 @@
         <v>34506</v>
       </c>
     </row>
-    <row r="477" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:6" s="11" customFormat="1">
       <c r="B477" s="11" t="s">
         <v>28</v>
       </c>
@@ -12480,7 +12626,7 @@
         <v>52243.199999999997</v>
       </c>
     </row>
-    <row r="478" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:6" s="11" customFormat="1">
       <c r="B478" s="11" t="s">
         <v>28</v>
       </c>
@@ -12498,7 +12644,7 @@
         <v>52243.199999999997</v>
       </c>
     </row>
-    <row r="479" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:6" s="11" customFormat="1">
       <c r="B479" s="11" t="s">
         <v>28</v>
       </c>
@@ -12516,7 +12662,7 @@
         <v>52243.199999999997</v>
       </c>
     </row>
-    <row r="480" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:6" s="11" customFormat="1">
       <c r="B480" s="11" t="s">
         <v>28</v>
       </c>
@@ -12534,7 +12680,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="481" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:6" s="11" customFormat="1">
       <c r="B481" s="11" t="s">
         <v>28</v>
       </c>
@@ -12552,7 +12698,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="482" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:6" s="11" customFormat="1">
       <c r="B482" s="11" t="s">
         <v>28</v>
       </c>
@@ -12570,7 +12716,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="483" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:6" s="11" customFormat="1">
       <c r="B483" s="11" t="s">
         <v>28</v>
       </c>
@@ -12588,7 +12734,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="484" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:6" s="11" customFormat="1">
       <c r="B484" s="11" t="s">
         <v>47</v>
       </c>
@@ -12606,7 +12752,7 @@
         <v>13905.6</v>
       </c>
     </row>
-    <row r="485" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:6" s="11" customFormat="1">
       <c r="B485" s="11" t="s">
         <v>47</v>
       </c>
@@ -12624,7 +12770,7 @@
         <v>22009.200000000001</v>
       </c>
     </row>
-    <row r="486" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:6" s="11" customFormat="1">
       <c r="B486" s="11" t="s">
         <v>47</v>
       </c>
@@ -12642,7 +12788,7 @@
         <v>14016</v>
       </c>
     </row>
-    <row r="487" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:6" s="11" customFormat="1">
       <c r="B487" s="11" t="s">
         <v>47</v>
       </c>
@@ -12660,7 +12806,7 @@
         <v>21595.200000000001</v>
       </c>
     </row>
-    <row r="488" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:6" s="11" customFormat="1">
       <c r="B488" s="11" t="s">
         <v>47</v>
       </c>
@@ -12678,7 +12824,7 @@
         <v>12283.199999999999</v>
       </c>
     </row>
-    <row r="489" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:6" s="11" customFormat="1">
       <c r="B489" s="11" t="s">
         <v>47</v>
       </c>
@@ -12696,7 +12842,7 @@
         <v>18367.2</v>
       </c>
     </row>
-    <row r="490" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:6" s="11" customFormat="1">
       <c r="B490" s="11" t="s">
         <v>47</v>
       </c>
@@ -12714,7 +12860,7 @@
         <v>13356</v>
       </c>
     </row>
-    <row r="491" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:6" s="11" customFormat="1">
       <c r="B491" s="11" t="s">
         <v>47</v>
       </c>
@@ -12732,7 +12878,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="492" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:6" s="11" customFormat="1">
       <c r="B492" s="11" t="s">
         <v>47</v>
       </c>
@@ -12750,7 +12896,7 @@
         <v>13905.6</v>
       </c>
     </row>
-    <row r="493" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:6" s="11" customFormat="1">
       <c r="B493" s="11" t="s">
         <v>47</v>
       </c>
@@ -12768,7 +12914,7 @@
         <v>22010.399999999998</v>
       </c>
     </row>
-    <row r="494" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:6" s="11" customFormat="1">
       <c r="B494" s="11" t="s">
         <v>47</v>
       </c>
@@ -12786,7 +12932,7 @@
         <v>14017.199999999999</v>
       </c>
     </row>
-    <row r="495" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:6" s="11" customFormat="1">
       <c r="B495" s="11" t="s">
         <v>47</v>
       </c>
@@ -12804,7 +12950,7 @@
         <v>19638</v>
       </c>
     </row>
-    <row r="496" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:6" s="11" customFormat="1">
       <c r="B496" s="11" t="s">
         <v>47</v>
       </c>
@@ -12822,7 +12968,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="497" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:6" s="11" customFormat="1">
       <c r="B497" s="11" t="s">
         <v>47</v>
       </c>
@@ -12840,7 +12986,7 @@
         <v>18367.2</v>
       </c>
     </row>
-    <row r="498" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:6" s="11" customFormat="1">
       <c r="B498" s="11" t="s">
         <v>47</v>
       </c>
@@ -12858,7 +13004,7 @@
         <v>13357.199999999999</v>
       </c>
     </row>
-    <row r="499" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:6" s="11" customFormat="1">
       <c r="B499" s="11" t="s">
         <v>47</v>
       </c>
@@ -12876,7 +13022,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="500" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:6" s="11" customFormat="1">
       <c r="B500" s="11" t="s">
         <v>47</v>
       </c>
@@ -12894,7 +13040,7 @@
         <v>13905.6</v>
       </c>
     </row>
-    <row r="501" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:6" s="11" customFormat="1">
       <c r="B501" s="11" t="s">
         <v>47</v>
       </c>
@@ -12912,7 +13058,7 @@
         <v>22010.399999999998</v>
       </c>
     </row>
-    <row r="502" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:6" s="11" customFormat="1">
       <c r="B502" s="11" t="s">
         <v>47</v>
       </c>
@@ -12930,7 +13076,7 @@
         <v>14017.199999999999</v>
       </c>
     </row>
-    <row r="503" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:6" s="11" customFormat="1">
       <c r="B503" s="11" t="s">
         <v>47</v>
       </c>
@@ -12948,7 +13094,7 @@
         <v>21597.599999999999</v>
       </c>
     </row>
-    <row r="504" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:6" s="11" customFormat="1">
       <c r="B504" s="11" t="s">
         <v>47</v>
       </c>
@@ -12966,7 +13112,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="505" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:6" s="11" customFormat="1">
       <c r="B505" s="11" t="s">
         <v>47</v>
       </c>
@@ -12984,7 +13130,7 @@
         <v>18367.2</v>
       </c>
     </row>
-    <row r="506" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:6" s="11" customFormat="1">
       <c r="B506" s="11" t="s">
         <v>47</v>
       </c>
@@ -13002,7 +13148,7 @@
         <v>13357.199999999999</v>
       </c>
     </row>
-    <row r="507" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:6" s="11" customFormat="1">
       <c r="B507" s="11" t="s">
         <v>47</v>
       </c>
@@ -13020,7 +13166,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="508" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:6" s="11" customFormat="1">
       <c r="B508" s="11" t="s">
         <v>47</v>
       </c>
@@ -13038,7 +13184,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="509" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:6" s="11" customFormat="1">
       <c r="B509" s="11" t="s">
         <v>47</v>
       </c>
@@ -13056,7 +13202,7 @@
         <v>24598.799999999999</v>
       </c>
     </row>
-    <row r="510" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:6" s="11" customFormat="1">
       <c r="B510" s="11" t="s">
         <v>47</v>
       </c>
@@ -13074,7 +13220,7 @@
         <v>15042</v>
       </c>
     </row>
-    <row r="511" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:6" s="11" customFormat="1">
       <c r="B511" s="11" t="s">
         <v>47</v>
       </c>
@@ -13092,7 +13238,7 @@
         <v>23866.799999999999</v>
       </c>
     </row>
-    <row r="512" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:6" s="11" customFormat="1">
       <c r="B512" s="11" t="s">
         <v>47</v>
       </c>
@@ -13110,7 +13256,7 @@
         <v>15352.8</v>
       </c>
     </row>
-    <row r="513" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:6" s="11" customFormat="1">
       <c r="B513" s="11" t="s">
         <v>47</v>
       </c>
@@ -13128,7 +13274,7 @@
         <v>24193.200000000001</v>
       </c>
     </row>
-    <row r="514" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:6" s="11" customFormat="1">
       <c r="B514" s="11" t="s">
         <v>47</v>
       </c>
@@ -13146,7 +13292,7 @@
         <v>24598.799999999999</v>
       </c>
     </row>
-    <row r="515" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:6" s="11" customFormat="1">
       <c r="B515" s="11" t="s">
         <v>47</v>
       </c>
@@ -13164,7 +13310,7 @@
         <v>34544.400000000001</v>
       </c>
     </row>
-    <row r="516" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:6" s="11" customFormat="1">
       <c r="B516" s="11" t="s">
         <v>47</v>
       </c>
@@ -13182,7 +13328,7 @@
         <v>23866.799999999999</v>
       </c>
     </row>
-    <row r="517" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:6" s="11" customFormat="1">
       <c r="B517" s="11" t="s">
         <v>47</v>
       </c>
@@ -13200,7 +13346,7 @@
         <v>33027.599999999999</v>
       </c>
     </row>
-    <row r="518" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:6" s="11" customFormat="1">
       <c r="B518" s="11" t="s">
         <v>47</v>
       </c>
@@ -13218,7 +13364,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="519" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:6" s="11" customFormat="1">
       <c r="B519" s="11" t="s">
         <v>47</v>
       </c>
@@ -13236,7 +13382,7 @@
         <v>10551.6</v>
       </c>
     </row>
-    <row r="520" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:6" s="11" customFormat="1">
       <c r="B520" s="11" t="s">
         <v>47</v>
       </c>
@@ -13254,7 +13400,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="521" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:6" s="11" customFormat="1">
       <c r="B521" s="11" t="s">
         <v>47</v>
       </c>
@@ -13272,7 +13418,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="522" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:6" s="11" customFormat="1">
       <c r="B522" s="11" t="s">
         <v>47</v>
       </c>
@@ -13290,7 +13436,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="523" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:6" s="11" customFormat="1">
       <c r="B523" s="11" t="s">
         <v>47</v>
       </c>
@@ -13308,7 +13454,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="524" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:6" s="11" customFormat="1">
       <c r="B524" s="11" t="s">
         <v>47</v>
       </c>
@@ -13326,7 +13472,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="525" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:6" s="11" customFormat="1">
       <c r="B525" s="11" t="s">
         <v>47</v>
       </c>
@@ -13344,7 +13490,7 @@
         <v>11364</v>
       </c>
     </row>
-    <row r="526" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:6" s="11" customFormat="1">
       <c r="B526" s="11" t="s">
         <v>47</v>
       </c>
@@ -13362,7 +13508,7 @@
         <v>14612.4</v>
       </c>
     </row>
-    <row r="527" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:6" s="11" customFormat="1">
       <c r="B527" s="11" t="s">
         <v>47</v>
       </c>
@@ -13380,7 +13526,7 @@
         <v>11364</v>
       </c>
     </row>
-    <row r="528" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:6" s="11" customFormat="1">
       <c r="B528" s="11" t="s">
         <v>47</v>
       </c>
@@ -13398,7 +13544,7 @@
         <v>14612.4</v>
       </c>
     </row>
-    <row r="529" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" s="11" customFormat="1">
       <c r="B529" s="11" t="s">
         <v>47</v>
       </c>
@@ -13416,7 +13562,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="530" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" s="11" customFormat="1">
       <c r="B530" s="11" t="s">
         <v>47</v>
       </c>
@@ -13434,7 +13580,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="531" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" s="11" customFormat="1">
       <c r="B531" s="11" t="s">
         <v>47</v>
       </c>
@@ -13452,7 +13598,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="532" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" s="11" customFormat="1">
       <c r="B532" s="11" t="s">
         <v>47</v>
       </c>
@@ -13470,7 +13616,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="533" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" s="11" customFormat="1">
       <c r="B533" s="11" t="s">
         <v>47</v>
       </c>
@@ -13488,7 +13634,7 @@
         <v>11364</v>
       </c>
     </row>
-    <row r="534" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" s="11" customFormat="1">
       <c r="B534" s="11" t="s">
         <v>47</v>
       </c>
@@ -13506,7 +13652,7 @@
         <v>14612.4</v>
       </c>
     </row>
-    <row r="535" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" s="11" customFormat="1">
       <c r="B535" s="11" t="s">
         <v>47</v>
       </c>
@@ -13524,7 +13670,7 @@
         <v>11364</v>
       </c>
     </row>
-    <row r="536" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" s="11" customFormat="1">
       <c r="B536" s="11" t="s">
         <v>47</v>
       </c>
@@ -13542,7 +13688,7 @@
         <v>14612.4</v>
       </c>
     </row>
-    <row r="537" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" s="11" customFormat="1">
       <c r="B537" s="11" t="s">
         <v>47</v>
       </c>
@@ -13560,7 +13706,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="538" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" s="11" customFormat="1">
       <c r="B538" s="11" t="s">
         <v>47</v>
       </c>
@@ -13578,7 +13724,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="539" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" s="11" customFormat="1">
       <c r="B539" s="11" t="s">
         <v>47</v>
       </c>
@@ -13596,7 +13742,7 @@
         <v>12166.8</v>
       </c>
     </row>
-    <row r="540" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" s="11" customFormat="1">
       <c r="B540" s="11" t="s">
         <v>47</v>
       </c>
@@ -13614,7 +13760,7 @@
         <v>15416.4</v>
       </c>
     </row>
-    <row r="541" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" s="11" customFormat="1">
       <c r="B541" s="11" t="s">
         <v>47</v>
       </c>
@@ -13632,7 +13778,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="542" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" s="11" customFormat="1">
       <c r="B542" s="11" t="s">
         <v>47</v>
       </c>
@@ -13650,7 +13796,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="543" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" s="25" customFormat="1">
       <c r="A543" s="11"/>
       <c r="B543" s="11" t="s">
         <v>47</v>
@@ -13669,7 +13815,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="544" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" s="25" customFormat="1">
       <c r="B544" s="11" t="s">
         <v>47</v>
       </c>
@@ -13687,7 +13833,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="545" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:6" s="25" customFormat="1">
       <c r="B545" s="11" t="s">
         <v>47</v>
       </c>
@@ -13705,7 +13851,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="546" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:6" s="25" customFormat="1">
       <c r="B546" s="11" t="s">
         <v>47</v>
       </c>
@@ -13723,7 +13869,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="547" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:6" s="25" customFormat="1">
       <c r="B547" s="11" t="s">
         <v>47</v>
       </c>
@@ -13741,7 +13887,7 @@
         <v>4501.2</v>
       </c>
     </row>
-    <row r="548" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:6" s="25" customFormat="1">
       <c r="B548" s="11" t="s">
         <v>47</v>
       </c>
@@ -13759,7 +13905,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="549" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:6" s="25" customFormat="1">
       <c r="B549" s="11" t="s">
         <v>47</v>
       </c>
@@ -13777,7 +13923,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="550" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:6" s="25" customFormat="1">
       <c r="B550" s="11" t="s">
         <v>47</v>
       </c>
@@ -13795,7 +13941,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="551" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:6" s="25" customFormat="1">
       <c r="B551" s="11" t="s">
         <v>47</v>
       </c>
@@ -13813,7 +13959,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="552" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:6" s="25" customFormat="1">
       <c r="B552" s="11" t="s">
         <v>47</v>
       </c>
@@ -13831,7 +13977,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="553" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:6" s="25" customFormat="1">
       <c r="B553" s="11" t="s">
         <v>47</v>
       </c>
@@ -13849,7 +13995,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="554" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:6" s="25" customFormat="1">
       <c r="B554" s="11" t="s">
         <v>47</v>
       </c>
@@ -13867,7 +14013,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="555" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:6" s="25" customFormat="1">
       <c r="B555" s="11" t="s">
         <v>50</v>
       </c>
@@ -13885,7 +14031,7 @@
         <v>11598</v>
       </c>
     </row>
-    <row r="556" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:6" s="25" customFormat="1">
       <c r="B556" s="11" t="s">
         <v>50</v>
       </c>
@@ -13903,7 +14049,7 @@
         <v>19557.599999999999</v>
       </c>
     </row>
-    <row r="557" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:6" s="25" customFormat="1">
       <c r="B557" s="11" t="s">
         <v>50</v>
       </c>
@@ -13921,7 +14067,7 @@
         <v>37551.599999999999</v>
       </c>
     </row>
-    <row r="558" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:6" s="25" customFormat="1">
       <c r="B558" s="11" t="s">
         <v>50</v>
       </c>
@@ -13939,7 +14085,7 @@
         <v>41505.599999999999</v>
       </c>
     </row>
-    <row r="559" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:6" s="25" customFormat="1">
       <c r="B559" s="11" t="s">
         <v>49</v>
       </c>
@@ -13957,7 +14103,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="560" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:6" s="25" customFormat="1">
       <c r="B560" s="11" t="s">
         <v>49</v>
       </c>
@@ -13975,7 +14121,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="561" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" s="25" customFormat="1">
       <c r="B561" s="11" t="s">
         <v>56</v>
       </c>
@@ -13993,7 +14139,7 @@
         <v>17137.2</v>
       </c>
     </row>
-    <row r="562" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" s="25" customFormat="1">
       <c r="B562" s="11" t="s">
         <v>56</v>
       </c>
@@ -14011,7 +14157,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="563" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" s="25" customFormat="1">
       <c r="B563" s="11" t="s">
         <v>56</v>
       </c>
@@ -14029,7 +14175,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" s="11" customFormat="1">
       <c r="A564" s="25"/>
       <c r="B564" s="11" t="s">
         <v>56</v>
@@ -14048,7 +14194,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" s="11" customFormat="1">
       <c r="B565" s="11" t="s">
         <v>56</v>
       </c>
@@ -14066,7 +14212,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" s="11" customFormat="1">
       <c r="B566" s="11" t="s">
         <v>56</v>
       </c>
@@ -14084,7 +14230,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" s="11" customFormat="1">
       <c r="B567" s="11" t="s">
         <v>56</v>
       </c>
@@ -14102,7 +14248,7 @@
         <v>13120.8</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" s="11" customFormat="1">
       <c r="B568" s="11" t="s">
         <v>940</v>
       </c>
@@ -14120,7 +14266,7 @@
         <v>13333.199999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" s="11" customFormat="1">
       <c r="B569" s="11" t="s">
         <v>940</v>
       </c>
@@ -14138,7 +14284,7 @@
         <v>13333.199999999999</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" s="11" customFormat="1">
       <c r="B570" s="11" t="s">
         <v>940</v>
       </c>
@@ -14156,7 +14302,7 @@
         <v>13333.199999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" s="11" customFormat="1">
       <c r="B571" s="11" t="s">
         <v>940</v>
       </c>
@@ -14174,7 +14320,7 @@
         <v>13333.199999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" s="11" customFormat="1">
       <c r="B572" s="11" t="s">
         <v>940</v>
       </c>
@@ -14192,7 +14338,7 @@
         <v>13333.199999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" s="11" customFormat="1">
       <c r="B573" s="11" t="s">
         <v>940</v>
       </c>
@@ -14210,7 +14356,7 @@
         <v>17293.2</v>
       </c>
     </row>
-    <row r="574" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" s="11" customFormat="1">
       <c r="B574" s="11" t="s">
         <v>940</v>
       </c>
@@ -14228,7 +14374,7 @@
         <v>17293.2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" s="11" customFormat="1">
       <c r="B575" s="11" t="s">
         <v>940</v>
       </c>
@@ -14246,7 +14392,7 @@
         <v>17293.2</v>
       </c>
     </row>
-    <row r="576" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" s="11" customFormat="1">
       <c r="B576" s="11" t="s">
         <v>940</v>
       </c>
@@ -14264,7 +14410,7 @@
         <v>17293.2</v>
       </c>
     </row>
-    <row r="577" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:6" s="11" customFormat="1">
       <c r="B577" s="11" t="s">
         <v>940</v>
       </c>
@@ -14282,7 +14428,7 @@
         <v>17293.2</v>
       </c>
     </row>
-    <row r="578" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:6" s="11" customFormat="1">
       <c r="B578" s="11" t="s">
         <v>940</v>
       </c>
@@ -14300,7 +14446,7 @@
         <v>21451.200000000001</v>
       </c>
     </row>
-    <row r="579" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:6" s="11" customFormat="1">
       <c r="B579" s="11" t="s">
         <v>940</v>
       </c>
@@ -14318,7 +14464,7 @@
         <v>21451.200000000001</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:6">
       <c r="B580" s="11" t="s">
         <v>940</v>
       </c>
@@ -14336,7 +14482,7 @@
         <v>21451.200000000001</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:6">
       <c r="B581" s="11" t="s">
         <v>940</v>
       </c>
@@ -14354,7 +14500,7 @@
         <v>21451.200000000001</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:6">
       <c r="B582" s="11" t="s">
         <v>940</v>
       </c>
